--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1398852.20340581</v>
+        <v>1485085.434316968</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584566</v>
+        <v>6486630.972584561</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>277.6521327069862</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>151.1280211999283</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>160.9510869642714</v>
+        <v>200.1983439946924</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>42.08734025447684</v>
       </c>
       <c r="U14" t="n">
-        <v>132.7770899075401</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1698,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3657483393379</v>
+        <v>63.92264786388883</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.50388216742073</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T15" t="n">
         <v>192.192932426668</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>165.211966401665</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1813,10 +1815,10 @@
         <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>15.53003894133983</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>171.719131583263</v>
+        <v>193.9103349994818</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1926,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>76.00196508919049</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1941,7 +1943,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1976,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T18" t="n">
-        <v>192.192932426668</v>
+        <v>142.0522311736846</v>
       </c>
       <c r="U18" t="n">
         <v>225.8112657109832</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>165.211966401665</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>92.51664689931592</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>163.78858717113</v>
       </c>
       <c r="W20" t="n">
-        <v>170.1346927218133</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>84.806281389885</v>
+        <v>63.50388216742073</v>
       </c>
       <c r="T21" t="n">
         <v>192.192932426668</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>68.33305522106681</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5870378728063</v>
+        <v>16.73410202349765</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>239.4065163201896</v>
+        <v>402.6978407964846</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2414,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H24" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>164.7621758197862</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>178.8252551272598</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>260.3715632052358</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>247.516797344826</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2651,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H27" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I27" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>65.99657241305849</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>87.27947278135125</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>210.3718522815838</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>56.08704400236074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,10 +2888,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H30" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I30" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>134.9469826428689</v>
+        <v>134.9469826428691</v>
       </c>
       <c r="T30" t="n">
         <v>192.192932426668</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>105.5870378728063</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>32.26997553999979</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>118.2694521832859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>211.3557162773921</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>182.3494988785232</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3123,10 +3125,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H33" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I33" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>169.6092138393071</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
         <v>220.8610019386828</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>155.4246490694401</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>230.3397287921037</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,10 +3283,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>94.20476355515466</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3362,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>42.99365986874195</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T36" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512203</v>
       </c>
       <c r="U36" t="n">
         <v>225.8112657109832</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>19.49926457713927</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.3328844140846</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.739413241946</v>
+        <v>57.04672334143962</v>
       </c>
       <c r="S37" t="n">
         <v>195.1205252336517</v>
@@ -3478,7 +3480,7 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>30.79159964955883</v>
       </c>
       <c r="H38" t="n">
-        <v>169.0313002411398</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3597,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742073</v>
       </c>
       <c r="T39" t="n">
         <v>192.192932426668</v>
@@ -3648,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>134.2395953018562</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>79.50445043418937</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>171.8758844840309</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>332.9795489138548</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9025541953869</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3831,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>63.9226478638888</v>
+        <v>63.92264786388973</v>
       </c>
       <c r="H42" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.3531038845436</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>170.8629698603932</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>345.7865272656003</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>206.9146911261644</v>
@@ -4034,7 +4036,7 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>67.2020614881628</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4073,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,7 +4112,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8112657109832</v>
+        <v>154.368165235535</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4119,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>155.6322839504927</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>179.5288452747391</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>41.40444102464919</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1505.147535883889</v>
+        <v>1188.031949265472</v>
       </c>
       <c r="C11" t="n">
-        <v>1505.147535883889</v>
+        <v>819.06943232506</v>
       </c>
       <c r="D11" t="n">
-        <v>1505.147535883889</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="E11" t="n">
-        <v>1119.359283285645</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F11" t="n">
-        <v>838.9025835816183</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G11" t="n">
-        <v>423.1386449296418</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I11" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K11" t="n">
         <v>428.7854999799488</v>
@@ -5069,22 +5071,22 @@
         <v>2490.8914464351</v>
       </c>
       <c r="T11" t="n">
-        <v>2281.886707923823</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="U11" t="n">
-        <v>2281.886707923823</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="V11" t="n">
-        <v>2281.886707923823</v>
+        <v>2338.236879566485</v>
       </c>
       <c r="W11" t="n">
-        <v>2281.886707923823</v>
+        <v>2338.236879566485</v>
       </c>
       <c r="X11" t="n">
-        <v>2281.886707923823</v>
+        <v>1964.771121305405</v>
       </c>
       <c r="Y11" t="n">
-        <v>1891.747375948011</v>
+        <v>1574.631789329593</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5120,28 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J12" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K12" t="n">
-        <v>288.9454078621915</v>
+        <v>413.7755328491962</v>
       </c>
       <c r="L12" t="n">
-        <v>576.9096910448542</v>
+        <v>701.7398160318588</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.689586177934</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.185219170621</v>
+        <v>1436.349986510835</v>
       </c>
       <c r="O12" t="n">
-        <v>2115.870836884379</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P12" t="n">
-        <v>2357.126603646088</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R12" t="n">
         <v>2490.8914464351</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>940.4252836188165</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C13" t="n">
-        <v>771.4891006909096</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D13" t="n">
-        <v>621.3724612785738</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E13" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F13" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G13" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I13" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477634</v>
       </c>
       <c r="K13" t="n">
         <v>242.1145636490679</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N13" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O13" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P13" t="n">
         <v>1557.066378230431</v>
@@ -5224,25 +5226,25 @@
         <v>1505.443183112052</v>
       </c>
       <c r="S13" t="n">
-        <v>1505.443183112052</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T13" t="n">
-        <v>1505.443183112052</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="U13" t="n">
-        <v>1505.443183112052</v>
+        <v>796.1400366611377</v>
       </c>
       <c r="V13" t="n">
-        <v>1505.443183112052</v>
+        <v>541.4555484552509</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.443183112052</v>
+        <v>252.0383784182903</v>
       </c>
       <c r="X13" t="n">
-        <v>1342.866327592586</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="Y13" t="n">
-        <v>1122.073748449056</v>
+        <v>49.81782892870199</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1509.522991884162</v>
+        <v>2058.239649555775</v>
       </c>
       <c r="C14" t="n">
-        <v>1509.522991884162</v>
+        <v>1689.277132615363</v>
       </c>
       <c r="D14" t="n">
-        <v>1151.257293277411</v>
+        <v>1331.011434008613</v>
       </c>
       <c r="E14" t="n">
-        <v>765.4690406791669</v>
+        <v>945.2231814103684</v>
       </c>
       <c r="F14" t="n">
-        <v>354.4831358895594</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="G14" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H14" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J14" t="n">
-        <v>181.175653581984</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799493</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P14" t="n">
         <v>2299.347327962849</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T14" t="n">
-        <v>2364.843483837423</v>
+        <v>2448.378981531587</v>
       </c>
       <c r="U14" t="n">
-        <v>2230.725211203544</v>
+        <v>2448.378981531587</v>
       </c>
       <c r="V14" t="n">
-        <v>1899.662323859973</v>
+        <v>2448.378981531587</v>
       </c>
       <c r="W14" t="n">
-        <v>1899.662323859973</v>
+        <v>2448.378981531587</v>
       </c>
       <c r="X14" t="n">
-        <v>1899.662323859973</v>
+        <v>2448.378981531587</v>
       </c>
       <c r="Y14" t="n">
-        <v>1509.522991884162</v>
+        <v>2058.239649555775</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488152</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757001</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G15" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>71.33540390088822</v>
+        <v>71.33540390088818</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J15" t="n">
-        <v>234.0659274310208</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K15" t="n">
-        <v>413.7755328491962</v>
+        <v>288.9454078621915</v>
       </c>
       <c r="L15" t="n">
-        <v>701.7398160318587</v>
+        <v>576.9096910448541</v>
       </c>
       <c r="M15" t="n">
-        <v>1318.235449024546</v>
+        <v>989.1240195260223</v>
       </c>
       <c r="N15" t="n">
-        <v>1697.448015254851</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.133632968608</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P15" t="n">
-        <v>2263.389399730317</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q15" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="16">
@@ -5410,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1085.259822331916</v>
+        <v>1087.315231116727</v>
       </c>
       <c r="C16" t="n">
         <v>918.37904818882</v>
@@ -5431,13 +5433,13 @@
         <v>156.4714025375973</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J16" t="n">
         <v>73.44728005477633</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L16" t="n">
         <v>513.4770511394356</v>
@@ -5461,25 +5463,25 @@
         <v>1505.443183112052</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.351743482101</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T16" t="n">
-        <v>1085.259822331916</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="U16" t="n">
-        <v>1085.259822331916</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="V16" t="n">
-        <v>1085.259822331916</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="W16" t="n">
-        <v>1085.259822331916</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="X16" t="n">
-        <v>1085.259822331916</v>
+        <v>1489.756275090497</v>
       </c>
       <c r="Y16" t="n">
-        <v>1085.259822331916</v>
+        <v>1268.963695946966</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1209.635718785673</v>
+        <v>1573.820201863716</v>
       </c>
       <c r="C17" t="n">
-        <v>1209.635718785673</v>
+        <v>1204.857684923304</v>
       </c>
       <c r="D17" t="n">
-        <v>851.3700201789227</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E17" t="n">
-        <v>465.5817675806785</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F17" t="n">
-        <v>465.5817675806785</v>
+        <v>49.817828928702</v>
       </c>
       <c r="G17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.817828928702</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.817828928702</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819841</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799497</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549159</v>
+        <v>772.8691714549161</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N17" t="n">
         <v>1613.248129085908</v>
@@ -5546,19 +5548,19 @@
         <v>2490.8914464351</v>
       </c>
       <c r="U17" t="n">
-        <v>2317.437778169177</v>
+        <v>2295.022421183098</v>
       </c>
       <c r="V17" t="n">
-        <v>1986.374890825607</v>
+        <v>1963.959533839528</v>
       </c>
       <c r="W17" t="n">
-        <v>1986.374890825607</v>
+        <v>1963.959533839528</v>
       </c>
       <c r="X17" t="n">
-        <v>1986.374890825607</v>
+        <v>1963.959533839528</v>
       </c>
       <c r="Y17" t="n">
-        <v>1596.235558849795</v>
+        <v>1573.820201863716</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.1382992416507</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C18" t="n">
-        <v>684.6852699605237</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9156082542706</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6781532488152</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1435952757001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H18" t="n">
-        <v>71.33540390088822</v>
+        <v>49.817828928702</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870199</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J18" t="n">
-        <v>234.0659274310208</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K18" t="n">
-        <v>583.0451988570713</v>
+        <v>550.7659925046443</v>
       </c>
       <c r="L18" t="n">
-        <v>871.0094820397339</v>
+        <v>838.7302756873069</v>
       </c>
       <c r="M18" t="n">
-        <v>1226.407086288405</v>
+        <v>1194.127879935978</v>
       </c>
       <c r="N18" t="n">
-        <v>1605.61965251871</v>
+        <v>1810.623512928666</v>
       </c>
       <c r="O18" t="n">
-        <v>1930.305270232467</v>
+        <v>2138.281785090958</v>
       </c>
       <c r="P18" t="n">
-        <v>2171.561036994176</v>
+        <v>2379.537551852668</v>
       </c>
       <c r="Q18" t="n">
         <v>2490.8914464351</v>
@@ -5619,25 +5621,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779001</v>
+        <v>2211.094260761814</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.35490019215</v>
+        <v>1983.002073174962</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960407</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232205</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026673</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.353636261719</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1085.259822331916</v>
+        <v>49.817828928702</v>
       </c>
       <c r="C19" t="n">
-        <v>918.37904818882</v>
+        <v>49.817828928702</v>
       </c>
       <c r="D19" t="n">
-        <v>768.2624087764842</v>
+        <v>49.817828928702</v>
       </c>
       <c r="E19" t="n">
-        <v>620.3493151940911</v>
+        <v>49.817828928702</v>
       </c>
       <c r="F19" t="n">
-        <v>473.4593676961807</v>
+        <v>49.817828928702</v>
       </c>
       <c r="G19" t="n">
-        <v>305.4463531364993</v>
+        <v>49.817828928702</v>
       </c>
       <c r="H19" t="n">
-        <v>156.4714025375973</v>
+        <v>49.817828928702</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870199</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J19" t="n">
         <v>73.44728005477633</v>
@@ -5695,28 +5697,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R19" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S19" t="n">
-        <v>1308.351743482101</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T19" t="n">
-        <v>1085.259822331916</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U19" t="n">
-        <v>1085.259822331916</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V19" t="n">
-        <v>1085.259822331916</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W19" t="n">
-        <v>1085.259822331916</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="X19" t="n">
-        <v>1085.259822331916</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="Y19" t="n">
-        <v>1085.259822331916</v>
+        <v>231.4662937589417</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>915.2474953566364</v>
+        <v>1603.795887917448</v>
       </c>
       <c r="C20" t="n">
-        <v>915.2474953566364</v>
+        <v>1234.833370977037</v>
       </c>
       <c r="D20" t="n">
-        <v>915.2474953566364</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="E20" t="n">
-        <v>529.4592427583921</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F20" t="n">
-        <v>118.4733379687844</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G20" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H20" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I20" t="n">
         <v>49.81782892870199</v>
@@ -5777,25 +5779,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S20" t="n">
-        <v>2490.8914464351</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T20" t="n">
-        <v>2490.8914464351</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U20" t="n">
-        <v>2237.305650629178</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="V20" t="n">
-        <v>2237.305650629178</v>
+        <v>1990.39572798157</v>
       </c>
       <c r="W20" t="n">
-        <v>2065.45242565765</v>
+        <v>1990.39572798157</v>
       </c>
       <c r="X20" t="n">
-        <v>1691.98666739657</v>
+        <v>1990.39572798157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1301.847335420758</v>
+        <v>1990.39572798157</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>909.7854722244628</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C21" t="n">
-        <v>735.3324429433358</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D21" t="n">
-        <v>586.3980332820845</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F21" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>49.81782892870199</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I21" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J21" t="n">
-        <v>234.0659274310208</v>
+        <v>141.5150087964425</v>
       </c>
       <c r="K21" t="n">
-        <v>675.596117491649</v>
+        <v>583.0451988570708</v>
       </c>
       <c r="L21" t="n">
-        <v>963.5604006743116</v>
+        <v>871.0094820397335</v>
       </c>
       <c r="M21" t="n">
-        <v>1318.958004922983</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N21" t="n">
-        <v>1698.170571153288</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O21" t="n">
-        <v>2022.856188867045</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P21" t="n">
-        <v>2357.126603646088</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q21" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R21" t="n">
         <v>2490.8914464351</v>
       </c>
       <c r="S21" t="n">
-        <v>2405.228535940266</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T21" t="n">
-        <v>2211.094260761814</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U21" t="n">
-        <v>1983.002073174962</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V21" t="n">
-        <v>1747.849964943219</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W21" t="n">
-        <v>1493.612608215017</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X21" t="n">
-        <v>1285.761108009485</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y21" t="n">
-        <v>1078.000809244531</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1571.043681526352</v>
+        <v>682.6618288073081</v>
       </c>
       <c r="C22" t="n">
-        <v>1571.043681526352</v>
+        <v>513.7256458794012</v>
       </c>
       <c r="D22" t="n">
-        <v>1571.043681526352</v>
+        <v>363.6090064670655</v>
       </c>
       <c r="E22" t="n">
-        <v>1502.020393424264</v>
+        <v>215.6959128846723</v>
       </c>
       <c r="F22" t="n">
-        <v>1355.130445926354</v>
+        <v>215.6959128846723</v>
       </c>
       <c r="G22" t="n">
-        <v>1187.117431366673</v>
+        <v>215.6959128846723</v>
       </c>
       <c r="H22" t="n">
-        <v>1038.142480767771</v>
+        <v>66.72096228577033</v>
       </c>
       <c r="I22" t="n">
-        <v>931.4889071588752</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J22" t="n">
-        <v>955.1183582849495</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K22" t="n">
-        <v>1123.785641879241</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L22" t="n">
-        <v>1395.148129369609</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M22" t="n">
-        <v>1691.650947694423</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N22" t="n">
-        <v>1986.538208137712</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.898026528776</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P22" t="n">
-        <v>2438.737456460604</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q22" t="n">
-        <v>2490.8914464351</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R22" t="n">
-        <v>2490.8914464351</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S22" t="n">
-        <v>2490.8914464351</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T22" t="n">
-        <v>2490.8914464351</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="U22" t="n">
-        <v>2490.8914464351</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="V22" t="n">
-        <v>2490.8914464351</v>
+        <v>1131.443958848856</v>
       </c>
       <c r="W22" t="n">
-        <v>2201.474276398139</v>
+        <v>1131.443958848856</v>
       </c>
       <c r="X22" t="n">
-        <v>1973.484725500122</v>
+        <v>903.4544079508382</v>
       </c>
       <c r="Y22" t="n">
-        <v>1752.692146356592</v>
+        <v>682.6618288073081</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1448.155198841357</v>
+        <v>1982.058447576006</v>
       </c>
       <c r="C23" t="n">
-        <v>1448.155198841357</v>
+        <v>1613.095930635594</v>
       </c>
       <c r="D23" t="n">
-        <v>1089.889500234607</v>
+        <v>1254.830232028844</v>
       </c>
       <c r="E23" t="n">
-        <v>704.1012476363624</v>
+        <v>869.0419794305997</v>
       </c>
       <c r="F23" t="n">
-        <v>293.1153428467548</v>
+        <v>458.0560746409921</v>
       </c>
       <c r="G23" t="n">
         <v>51.29057888696726</v>
@@ -5987,25 +5989,25 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
-        <v>182.6484035402486</v>
+        <v>254.8131514952466</v>
       </c>
       <c r="K23" t="n">
-        <v>430.2582499382139</v>
+        <v>502.4229978932121</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3419214131802</v>
+        <v>846.5066693681786</v>
       </c>
       <c r="M23" t="n">
-        <v>1188.870741198924</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N23" t="n">
-        <v>1614.720879044172</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O23" t="n">
-        <v>2003.503827275789</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P23" t="n">
-        <v>2300.820077921114</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q23" t="n">
         <v>2548.08420147501</v>
@@ -6017,22 +6019,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T23" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U23" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="V23" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="W23" t="n">
-        <v>2211.760289078249</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="X23" t="n">
-        <v>1838.294530817169</v>
+        <v>1982.058447576006</v>
       </c>
       <c r="Y23" t="n">
-        <v>1448.155198841357</v>
+        <v>1982.058447576006</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.7757971549145</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C24" t="n">
-        <v>758.3227678737875</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G24" t="n">
         <v>166.8832661033211</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I24" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
-        <v>235.538677389286</v>
+        <v>110.7085524022813</v>
       </c>
       <c r="K24" t="n">
-        <v>677.0688674499143</v>
+        <v>290.4181578204568</v>
       </c>
       <c r="L24" t="n">
-        <v>965.0331506325768</v>
+        <v>587.0798513031098</v>
       </c>
       <c r="M24" t="n">
-        <v>1320.430754881249</v>
+        <v>942.4774555517815</v>
       </c>
       <c r="N24" t="n">
-        <v>1887.233665290464</v>
+        <v>1577.198369278001</v>
       </c>
       <c r="O24" t="n">
         <v>2211.919283004221</v>
@@ -6102,7 +6104,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6111,7 +6113,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>919.8517981470852</v>
+        <v>367.8336585213093</v>
       </c>
       <c r="C25" t="n">
-        <v>919.8517981470852</v>
+        <v>201.407218299303</v>
       </c>
       <c r="D25" t="n">
-        <v>769.7351587347495</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E25" t="n">
-        <v>621.8220651523563</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F25" t="n">
-        <v>474.932117654446</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G25" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H25" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I25" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K25" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L25" t="n">
-        <v>514.9498010977009</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M25" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N25" t="n">
         <v>1106.339879865804</v>
@@ -6178,19 +6180,19 @@
         <v>1610.693118163192</v>
       </c>
       <c r="U25" t="n">
-        <v>1430.061547327576</v>
+        <v>1321.573332492414</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.061547327576</v>
+        <v>1066.888844286527</v>
       </c>
       <c r="W25" t="n">
-        <v>1140.644377290615</v>
+        <v>777.4716742495664</v>
       </c>
       <c r="X25" t="n">
-        <v>1140.644377290615</v>
+        <v>549.482123351549</v>
       </c>
       <c r="Y25" t="n">
-        <v>919.8517981470852</v>
+        <v>549.482123351549</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1164.307047032374</v>
+        <v>1838.294530817169</v>
       </c>
       <c r="C26" t="n">
-        <v>795.344530091962</v>
+        <v>1469.332013876757</v>
       </c>
       <c r="D26" t="n">
-        <v>437.0788314852115</v>
+        <v>1111.066315270007</v>
       </c>
       <c r="E26" t="n">
-        <v>51.29057888696726</v>
+        <v>725.2780626717624</v>
       </c>
       <c r="F26" t="n">
-        <v>51.29057888696726</v>
+        <v>314.2921578821549</v>
       </c>
       <c r="G26" t="n">
         <v>51.29057888696726</v>
@@ -6224,16 +6226,16 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J26" t="n">
-        <v>254.8131514952473</v>
+        <v>182.6484035402487</v>
       </c>
       <c r="K26" t="n">
-        <v>502.4229978932127</v>
+        <v>430.2582499382141</v>
       </c>
       <c r="L26" t="n">
-        <v>846.506669368179</v>
+        <v>774.3419214131807</v>
       </c>
       <c r="M26" t="n">
-        <v>1261.035489153923</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N26" t="n">
         <v>1686.885626999171</v>
@@ -6263,13 +6265,13 @@
         <v>2564.528944348363</v>
       </c>
       <c r="W26" t="n">
-        <v>2314.511977333387</v>
+        <v>2211.760289078249</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.046219072307</v>
+        <v>1838.294530817169</v>
       </c>
       <c r="Y26" t="n">
-        <v>1550.906887096495</v>
+        <v>1838.294530817169</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6299,7 @@
         <v>166.8832661033211</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915383</v>
       </c>
       <c r="I27" t="n">
         <v>51.29057888696726</v>
@@ -6306,16 +6308,16 @@
         <v>110.7085524022813</v>
       </c>
       <c r="K27" t="n">
-        <v>290.4181578204567</v>
+        <v>552.2387424629096</v>
       </c>
       <c r="L27" t="n">
-        <v>578.3824410031193</v>
+        <v>1152.623494811487</v>
       </c>
       <c r="M27" t="n">
-        <v>1213.103354729339</v>
+        <v>1508.021099060159</v>
       </c>
       <c r="N27" t="n">
-        <v>1847.824268455559</v>
+        <v>1887.233665290464</v>
       </c>
       <c r="O27" t="n">
         <v>2211.919283004221</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>838.6019090223269</v>
+        <v>348.2971657972133</v>
       </c>
       <c r="C28" t="n">
-        <v>838.6019090223269</v>
+        <v>348.2971657972133</v>
       </c>
       <c r="D28" t="n">
-        <v>688.4852696099912</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="E28" t="n">
-        <v>621.8220651523563</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="F28" t="n">
-        <v>474.932117654446</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G28" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H28" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I28" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K28" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L28" t="n">
-        <v>514.9498010977009</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M28" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N28" t="n">
         <v>1106.339879865804</v>
@@ -6415,19 +6417,19 @@
         <v>1610.693118163192</v>
       </c>
       <c r="U28" t="n">
-        <v>1610.693118163192</v>
+        <v>1321.573332492414</v>
       </c>
       <c r="V28" t="n">
-        <v>1356.008629957305</v>
+        <v>1066.888844286527</v>
       </c>
       <c r="W28" t="n">
-        <v>1066.591459920344</v>
+        <v>978.7277606690005</v>
       </c>
       <c r="X28" t="n">
-        <v>838.6019090223269</v>
+        <v>750.7382097709832</v>
       </c>
       <c r="Y28" t="n">
-        <v>838.6019090223269</v>
+        <v>529.9456306274531</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1787.78977230843</v>
+        <v>476.9066756277434</v>
       </c>
       <c r="C29" t="n">
-        <v>1418.827255368018</v>
+        <v>107.9441586873317</v>
       </c>
       <c r="D29" t="n">
-        <v>1060.561556761267</v>
+        <v>107.9441586873317</v>
       </c>
       <c r="E29" t="n">
-        <v>674.7733041630231</v>
+        <v>107.9441586873317</v>
       </c>
       <c r="F29" t="n">
-        <v>263.7873993734156</v>
+        <v>107.9441586873317</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29057888696726</v>
+        <v>107.9441586873317</v>
       </c>
       <c r="H29" t="n">
-        <v>51.29057888696726</v>
+        <v>107.9441586873317</v>
       </c>
       <c r="I29" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
-        <v>182.6484035402486</v>
+        <v>189.7538958209935</v>
       </c>
       <c r="K29" t="n">
-        <v>430.2582499382139</v>
+        <v>437.363742218959</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3419214131802</v>
+        <v>781.4474136939255</v>
       </c>
       <c r="M29" t="n">
-        <v>1261.035489153923</v>
+        <v>1195.976233479669</v>
       </c>
       <c r="N29" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O29" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P29" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
@@ -6494,19 +6496,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="U29" t="n">
-        <v>2564.528944348363</v>
+        <v>2310.943148542442</v>
       </c>
       <c r="V29" t="n">
-        <v>2564.528944348363</v>
+        <v>1979.880261198871</v>
       </c>
       <c r="W29" t="n">
-        <v>2564.528944348363</v>
+        <v>1627.111605928757</v>
       </c>
       <c r="X29" t="n">
-        <v>2564.528944348363</v>
+        <v>1253.645847667677</v>
       </c>
       <c r="Y29" t="n">
-        <v>2174.389612372551</v>
+        <v>863.5065156918652</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>166.883266103321</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I30" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>127.7070010306074</v>
+        <v>110.7085524022813</v>
       </c>
       <c r="K30" t="n">
-        <v>307.4166064487828</v>
+        <v>290.4181578204568</v>
       </c>
       <c r="L30" t="n">
-        <v>595.3808896314454</v>
+        <v>925.1390715466766</v>
       </c>
       <c r="M30" t="n">
-        <v>1230.101803357665</v>
+        <v>1280.536675795348</v>
       </c>
       <c r="N30" t="n">
-        <v>1864.822717083885</v>
+        <v>1659.749242025653</v>
       </c>
       <c r="O30" t="n">
-        <v>2189.508334797642</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P30" t="n">
-        <v>2430.764101559351</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1088.787981074992</v>
+        <v>642.806443565844</v>
       </c>
       <c r="C31" t="n">
-        <v>919.8517981470852</v>
+        <v>473.8702606379371</v>
       </c>
       <c r="D31" t="n">
-        <v>769.7351587347495</v>
+        <v>473.8702606379371</v>
       </c>
       <c r="E31" t="n">
-        <v>621.8220651523563</v>
+        <v>325.9571670555439</v>
       </c>
       <c r="F31" t="n">
-        <v>474.932117654446</v>
+        <v>325.9571670555439</v>
       </c>
       <c r="G31" t="n">
-        <v>306.9191030947646</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="H31" t="n">
-        <v>157.9441524958626</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="I31" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K31" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L31" t="n">
-        <v>514.9498010977009</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M31" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N31" t="n">
         <v>1106.339879865804</v>
@@ -6643,28 +6645,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R31" t="n">
-        <v>1610.693118163192</v>
+        <v>1578.097183274303</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.693118163192</v>
+        <v>1381.005743644352</v>
       </c>
       <c r="T31" t="n">
-        <v>1610.693118163192</v>
+        <v>1381.005743644352</v>
       </c>
       <c r="U31" t="n">
-        <v>1610.693118163192</v>
+        <v>1381.005743644352</v>
       </c>
       <c r="V31" t="n">
-        <v>1610.693118163192</v>
+        <v>1381.005743644352</v>
       </c>
       <c r="W31" t="n">
-        <v>1610.693118163192</v>
+        <v>1091.588573607391</v>
       </c>
       <c r="X31" t="n">
-        <v>1491.229025048762</v>
+        <v>863.5990227093741</v>
       </c>
       <c r="Y31" t="n">
-        <v>1270.436445905232</v>
+        <v>642.806443565844</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1061.555358777235</v>
+        <v>420.253095827379</v>
       </c>
       <c r="C32" t="n">
-        <v>1061.555358777235</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D32" t="n">
-        <v>1061.555358777235</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E32" t="n">
-        <v>675.7671061789911</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F32" t="n">
-        <v>264.7812013893835</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G32" t="n">
         <v>51.29057888696726</v>
@@ -6698,52 +6700,52 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J32" t="n">
-        <v>182.6484035402486</v>
+        <v>189.7538958209935</v>
       </c>
       <c r="K32" t="n">
-        <v>430.2582499382139</v>
+        <v>437.363742218959</v>
       </c>
       <c r="L32" t="n">
-        <v>774.3419214131802</v>
+        <v>781.4474136939255</v>
       </c>
       <c r="M32" t="n">
-        <v>1188.870741198924</v>
+        <v>1195.976233479669</v>
       </c>
       <c r="N32" t="n">
-        <v>1614.720879044172</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O32" t="n">
-        <v>2003.503827275789</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P32" t="n">
-        <v>2300.820077921114</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T32" t="n">
-        <v>2564.528944348363</v>
+        <v>2254.289568742077</v>
       </c>
       <c r="U32" t="n">
-        <v>2564.528944348363</v>
+        <v>2254.289568742077</v>
       </c>
       <c r="V32" t="n">
-        <v>2564.528944348363</v>
+        <v>1923.226681398506</v>
       </c>
       <c r="W32" t="n">
-        <v>2211.760289078249</v>
+        <v>1570.458026128392</v>
       </c>
       <c r="X32" t="n">
-        <v>1838.294530817169</v>
+        <v>1196.992267867312</v>
       </c>
       <c r="Y32" t="n">
-        <v>1448.155198841357</v>
+        <v>806.8529358915007</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C33" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G33" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I33" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>110.7085524022813</v>
+        <v>167.6206740722814</v>
       </c>
       <c r="K33" t="n">
-        <v>290.4181578204567</v>
+        <v>609.1508641329096</v>
       </c>
       <c r="L33" t="n">
-        <v>578.3824410031193</v>
+        <v>897.1151473155724</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.985803047697</v>
+        <v>1252.512751564244</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.198369278001</v>
+        <v>1887.233665290464</v>
       </c>
       <c r="O33" t="n">
         <v>2211.919283004221</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="C34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="D34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="E34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="F34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="G34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="H34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="I34" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K34" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L34" t="n">
-        <v>514.9498010977009</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M34" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N34" t="n">
         <v>1106.339879865804</v>
@@ -6883,25 +6885,25 @@
         <v>1506.915933070317</v>
       </c>
       <c r="S34" t="n">
-        <v>1335.593494848795</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="T34" t="n">
-        <v>1112.50157369861</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="U34" t="n">
-        <v>823.381788027832</v>
+        <v>797.6127866194032</v>
       </c>
       <c r="V34" t="n">
-        <v>568.6972998219452</v>
+        <v>542.9282984135164</v>
       </c>
       <c r="W34" t="n">
-        <v>279.2801297849846</v>
+        <v>385.9337033938799</v>
       </c>
       <c r="X34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="Y34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958625</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1245.530189310698</v>
+        <v>2237.305650629179</v>
       </c>
       <c r="C35" t="n">
-        <v>876.5676723702861</v>
+        <v>1868.343133688767</v>
       </c>
       <c r="D35" t="n">
-        <v>876.5676723702861</v>
+        <v>1635.67674096947</v>
       </c>
       <c r="E35" t="n">
-        <v>876.5676723702861</v>
+        <v>1249.888488371226</v>
       </c>
       <c r="F35" t="n">
-        <v>465.5817675806785</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="G35" t="n">
-        <v>49.81782892870199</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870199</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549153</v>
       </c>
       <c r="M35" t="n">
         <v>1187.397991240659</v>
@@ -6950,10 +6952,10 @@
         <v>1613.248129085908</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q35" t="n">
         <v>2474.446703561747</v>
@@ -6965,22 +6967,22 @@
         <v>2490.8914464351</v>
       </c>
       <c r="T35" t="n">
-        <v>2395.735119611711</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="U35" t="n">
-        <v>2395.735119611711</v>
+        <v>2237.305650629179</v>
       </c>
       <c r="V35" t="n">
-        <v>2395.735119611711</v>
+        <v>2237.305650629179</v>
       </c>
       <c r="W35" t="n">
-        <v>2395.735119611711</v>
+        <v>2237.305650629179</v>
       </c>
       <c r="X35" t="n">
-        <v>2022.269361350631</v>
+        <v>2237.305650629179</v>
       </c>
       <c r="Y35" t="n">
-        <v>1632.13002937482</v>
+        <v>2237.305650629179</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.1382992416507</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C36" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D36" t="n">
-        <v>535.7508602992724</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E36" t="n">
-        <v>376.5134052938169</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F36" t="n">
-        <v>229.9788473207019</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G36" t="n">
-        <v>93.2457681900575</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
-        <v>49.81782892870199</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870199</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J36" t="n">
-        <v>234.0659274310208</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K36" t="n">
-        <v>531.3276987466003</v>
+        <v>550.7659925046444</v>
       </c>
       <c r="L36" t="n">
-        <v>819.2919819292629</v>
+        <v>838.7302756873071</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.689586177934</v>
+        <v>1194.127879935979</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.185219170622</v>
+        <v>1573.340446166284</v>
       </c>
       <c r="O36" t="n">
         <v>2115.870836884379</v>
@@ -7035,31 +7037,31 @@
         <v>2357.126603646088</v>
       </c>
       <c r="Q36" t="n">
-        <v>2468.48049822852</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R36" t="n">
         <v>2490.8914464351</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.35490019215</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026673</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.353636261719</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>386.5020209328807</v>
+        <v>682.6319245131027</v>
       </c>
       <c r="C37" t="n">
-        <v>366.8057940872854</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="D37" t="n">
-        <v>366.8057940872854</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="E37" t="n">
-        <v>366.8057940872854</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="F37" t="n">
         <v>366.8057940872854</v>
@@ -7087,28 +7089,28 @@
         <v>198.792779527604</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.817828928702</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477633</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K37" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N37" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O37" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P37" t="n">
         <v>1557.066378230431</v>
@@ -7117,28 +7119,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R37" t="n">
-        <v>1505.443183112052</v>
+        <v>1551.597415334786</v>
       </c>
       <c r="S37" t="n">
-        <v>1308.351743482101</v>
+        <v>1354.505975704835</v>
       </c>
       <c r="T37" t="n">
-        <v>1085.259822331916</v>
+        <v>1131.41405455465</v>
       </c>
       <c r="U37" t="n">
-        <v>796.1400366611377</v>
+        <v>1131.41405455465</v>
       </c>
       <c r="V37" t="n">
-        <v>796.1400366611377</v>
+        <v>1131.41405455465</v>
       </c>
       <c r="W37" t="n">
-        <v>796.1400366611377</v>
+        <v>1131.41405455465</v>
       </c>
       <c r="X37" t="n">
-        <v>568.1504857631204</v>
+        <v>903.4245036566329</v>
       </c>
       <c r="Y37" t="n">
-        <v>568.1504857631204</v>
+        <v>682.6319245131027</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1427.426145417817</v>
+        <v>1978.243643773301</v>
       </c>
       <c r="C38" t="n">
-        <v>1058.463628477405</v>
+        <v>1609.281126832889</v>
       </c>
       <c r="D38" t="n">
-        <v>700.1979298706544</v>
+        <v>1251.015428226139</v>
       </c>
       <c r="E38" t="n">
-        <v>700.1979298706544</v>
+        <v>865.2271756278947</v>
       </c>
       <c r="F38" t="n">
-        <v>289.2120250810469</v>
+        <v>454.2412708382871</v>
       </c>
       <c r="G38" t="n">
-        <v>289.2120250810469</v>
+        <v>423.1386449296418</v>
       </c>
       <c r="H38" t="n">
         <v>118.4733379687844</v>
@@ -7172,13 +7174,13 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J38" t="n">
-        <v>181.175653581984</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799493</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549153</v>
       </c>
       <c r="M38" t="n">
         <v>1187.397991240659</v>
@@ -7187,10 +7189,10 @@
         <v>1613.248129085908</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q38" t="n">
         <v>2474.446703561747</v>
@@ -7205,19 +7207,19 @@
         <v>2364.843483837423</v>
       </c>
       <c r="U38" t="n">
-        <v>2111.257688031501</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="V38" t="n">
-        <v>1780.194800687931</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="W38" t="n">
-        <v>1427.426145417817</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="X38" t="n">
-        <v>1427.426145417817</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="Y38" t="n">
-        <v>1427.426145417817</v>
+        <v>2364.843483837423</v>
       </c>
     </row>
     <row r="39">
@@ -7236,64 +7238,64 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6781532488152</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1435952757001</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G39" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H39" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I39" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J39" t="n">
-        <v>109.235802444016</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K39" t="n">
-        <v>288.9454078621914</v>
+        <v>288.9454078621915</v>
       </c>
       <c r="L39" t="n">
-        <v>905.4410408548786</v>
+        <v>576.9096910448542</v>
       </c>
       <c r="M39" t="n">
-        <v>1411.972652940317</v>
+        <v>1193.405324037542</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.185219170622</v>
+        <v>1572.617890267846</v>
       </c>
       <c r="O39" t="n">
-        <v>2115.870836884379</v>
+        <v>2138.281785090958</v>
       </c>
       <c r="P39" t="n">
-        <v>2357.126603646088</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q39" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R39" t="n">
         <v>2490.8914464351</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957454</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.35490019215</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X39" t="n">
-        <v>1235.113935026673</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y39" t="n">
         <v>1099.518384216717</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.1253546198024</v>
+        <v>515.760598766855</v>
       </c>
       <c r="C40" t="n">
-        <v>130.1253546198024</v>
+        <v>346.8244158389481</v>
       </c>
       <c r="D40" t="n">
-        <v>130.1253546198024</v>
+        <v>196.7077764266124</v>
       </c>
       <c r="E40" t="n">
-        <v>130.1253546198024</v>
+        <v>196.7077764266124</v>
       </c>
       <c r="F40" t="n">
         <v>49.81782892870199</v>
@@ -7330,22 +7332,22 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477633</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K40" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N40" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O40" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P40" t="n">
         <v>1557.066378230431</v>
@@ -7357,25 +7359,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S40" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T40" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U40" t="n">
-        <v>1123.009142904197</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="V40" t="n">
-        <v>868.3246546983104</v>
+        <v>1435.608363675603</v>
       </c>
       <c r="W40" t="n">
-        <v>578.9074846613498</v>
+        <v>1146.191193638642</v>
       </c>
       <c r="X40" t="n">
-        <v>350.9179337633325</v>
+        <v>918.2016427406248</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.1253546198024</v>
+        <v>697.4090635970947</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1039.464999819139</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="C41" t="n">
-        <v>670.5024828787275</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="D41" t="n">
-        <v>670.5024828787275</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="E41" t="n">
-        <v>670.5024828787275</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="F41" t="n">
-        <v>670.5024828787275</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="G41" t="n">
-        <v>254.738544226751</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H41" t="n">
         <v>118.4733379687844</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J41" t="n">
         <v>181.1756535819834</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L41" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N41" t="n">
         <v>1613.248129085907</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P41" t="n">
         <v>2299.347327962849</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T41" t="n">
-        <v>2155.838745326145</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U41" t="n">
-        <v>2155.838745326145</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="V41" t="n">
-        <v>2155.838745326145</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="W41" t="n">
-        <v>1803.070090056031</v>
+        <v>1218.421406906539</v>
       </c>
       <c r="X41" t="n">
-        <v>1429.604331794951</v>
+        <v>844.9556486454596</v>
       </c>
       <c r="Y41" t="n">
-        <v>1039.464999819139</v>
+        <v>454.8163166696479</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416497</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605228</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992715</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E42" t="n">
-        <v>376.513405293816</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F42" t="n">
-        <v>229.978847320701</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G42" t="n">
         <v>165.4105161450557</v>
@@ -7485,55 +7487,55 @@
         <v>71.3354039008882</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J42" t="n">
-        <v>234.0659274310207</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K42" t="n">
-        <v>675.596117491649</v>
+        <v>550.7659925046444</v>
       </c>
       <c r="L42" t="n">
-        <v>963.5604006743116</v>
+        <v>838.7302756873071</v>
       </c>
       <c r="M42" t="n">
-        <v>1318.958004922983</v>
+        <v>1194.127879935979</v>
       </c>
       <c r="N42" t="n">
-        <v>1698.170571153288</v>
+        <v>1573.340446166284</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.856188867045</v>
+        <v>1898.026063880041</v>
       </c>
       <c r="P42" t="n">
-        <v>2379.537551852666</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W42" t="n">
         <v>1442.965435232205</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="43">
@@ -7543,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.81782892870198</v>
+        <v>516.7837448513377</v>
       </c>
       <c r="C43" t="n">
-        <v>49.81782892870198</v>
+        <v>347.8475619234308</v>
       </c>
       <c r="D43" t="n">
-        <v>49.81782892870198</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="E43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N43" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O43" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P43" t="n">
         <v>1557.066378230431</v>
@@ -7591,28 +7593,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R43" t="n">
-        <v>1524.015212765994</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S43" t="n">
-        <v>1326.923773136042</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T43" t="n">
-        <v>1103.831851985858</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U43" t="n">
-        <v>814.7120663150796</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="V43" t="n">
-        <v>560.0275781091927</v>
+        <v>1436.631509760085</v>
       </c>
       <c r="W43" t="n">
-        <v>270.6104080722321</v>
+        <v>1147.214339723125</v>
       </c>
       <c r="X43" t="n">
-        <v>270.6104080722321</v>
+        <v>919.2247888251076</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.81782892870198</v>
+        <v>698.4322096815774</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1512.113617544412</v>
+        <v>1573.820201863716</v>
       </c>
       <c r="C44" t="n">
-        <v>1143.151100604</v>
+        <v>1204.857684923304</v>
       </c>
       <c r="D44" t="n">
-        <v>784.8854019972496</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E44" t="n">
-        <v>399.0971493990053</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F44" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G44" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H44" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I44" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819828</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799483</v>
       </c>
       <c r="L44" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
         <v>1613.248129085907</v>
@@ -7667,31 +7669,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S44" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T44" t="n">
-        <v>2155.838745326145</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U44" t="n">
-        <v>1902.252949520223</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="V44" t="n">
-        <v>1902.252949520223</v>
+        <v>1960.420041927838</v>
       </c>
       <c r="W44" t="n">
-        <v>1902.252949520223</v>
+        <v>1960.420041927838</v>
       </c>
       <c r="X44" t="n">
-        <v>1902.252949520223</v>
+        <v>1960.420041927838</v>
       </c>
       <c r="Y44" t="n">
-        <v>1512.113617544412</v>
+        <v>1960.420041927838</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>909.7854722244628</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C45" t="n">
-        <v>735.3324429433358</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D45" t="n">
-        <v>586.3980332820845</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E45" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F45" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H45" t="n">
-        <v>49.81782892870198</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9310127909879</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K45" t="n">
-        <v>292.6406182091633</v>
+        <v>560.6342506504916</v>
       </c>
       <c r="L45" t="n">
-        <v>580.6049013918259</v>
+        <v>848.5985338331543</v>
       </c>
       <c r="M45" t="n">
-        <v>1197.100534384513</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N45" t="n">
-        <v>1813.5961673772</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O45" t="n">
-        <v>2138.281785090957</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P45" t="n">
-        <v>2379.537551852666</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S45" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T45" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U45" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V45" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W45" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X45" t="n">
-        <v>1285.761108009485</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y45" t="n">
-        <v>1078.000809244531</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="46">
@@ -7780,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>558.6064125530036</v>
+        <v>366.6671054390021</v>
       </c>
       <c r="C46" t="n">
-        <v>389.6702296250967</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="D46" t="n">
-        <v>239.553590212761</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="E46" t="n">
-        <v>91.64049663036783</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F46" t="n">
-        <v>91.64049663036783</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G46" t="n">
-        <v>91.64049663036783</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H46" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I46" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N46" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O46" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P46" t="n">
         <v>1557.066378230431</v>
@@ -7831,25 +7833,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S46" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T46" t="n">
-        <v>1189.037007424791</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U46" t="n">
-        <v>1189.037007424791</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V46" t="n">
-        <v>1189.037007424791</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W46" t="n">
-        <v>1189.037007424791</v>
+        <v>775.9989242913014</v>
       </c>
       <c r="X46" t="n">
-        <v>961.0474565267734</v>
+        <v>548.009373393284</v>
       </c>
       <c r="Y46" t="n">
-        <v>740.2548773832433</v>
+        <v>548.009373393284</v>
       </c>
     </row>
   </sheetData>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>244.8305968529377</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>239.6798654165477</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>170.9794606140153</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>263.7353825697127</v>
+        <v>57.39063053787527</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>239.6798654165476</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.68404435936441</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>170.9794606140153</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>239.679865416548</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>3.002681261147075</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>22.8843483905338</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>32.60525894184487</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>93.9541899164991</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>72.89368480302826</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>72.89368480302872</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9714,22 +9716,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>8.785262929283135</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>189.485196140314</v>
+        <v>258.0892398948636</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>313.1669656691543</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>72.893684803029</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>72.89368480302807</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9954,19 +9956,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>315.5762314807222</v>
       </c>
       <c r="M27" t="n">
-        <v>282.1447570480286</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>258.0892398948637</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>39.80747155040928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7.177264930045311</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>72.89368480302915</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>17.1701501296223</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>350.2592227712699</v>
       </c>
       <c r="M30" t="n">
-        <v>282.1447570480286</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>258.0892398948637</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>19.70495798618214</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>7.177264930045311</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10367,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>72.89368480302872</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,22 +10427,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>57.4869915858586</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>266.8745028241473</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>258.0892398948636</v>
       </c>
       <c r="O33" t="n">
-        <v>313.1669656691544</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>118.7395615125293</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,10 +10676,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>239.6798654165478</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>220.0452252569072</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10905,16 +10907,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>331.8498482929541</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>152.6606139765321</v>
+        <v>263.7353825697126</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>243.4124011205598</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>116.5915113372852</v>
+        <v>32.60525894184474</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>3.732535704012044</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>148.3421391932276</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>263.7353825697126</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>239.6798654165476</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>129.2239130347252</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>176.6242372702066</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>64.75856842476571</v>
+        <v>25.51131139434477</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>164.8273508716876</v>
       </c>
       <c r="U14" t="n">
-        <v>118.2728479403222</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23586,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>71.4431004754491</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23622,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>71.44310047544818</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.03485469696281</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
         <v>286.2285878140705</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>210.1796164476973</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
         <v>301.6186538912489</v>
@@ -23786,7 +23788,7 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>79.3308062645992</v>
+        <v>57.13960284838041</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23814,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>71.44310047544826</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23829,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23862,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>50.14070125298343</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.03485469696281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>126.0680064527789</v>
       </c>
     </row>
     <row r="20">
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>163.9636712990049</v>
       </c>
       <c r="W20" t="n">
-        <v>179.1062759955998</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24066,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>50.1407012529839</v>
+        <v>71.44310047544815</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>78.10090742550236</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>88.85293584930866</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24180,16 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>172.1997829452671</v>
+        <v>8.908458468972128</v>
       </c>
       <c r="H23" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.0499378478622</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>2.484645278841612</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>107.4033326868106</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>151.2347360602209</v>
       </c>
       <c r="H26" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>101.724171372587</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>80.43739023351068</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>199.2435255552398</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>201.2344469838729</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968163</v>
+        <v>11.88190994732086</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,16 +24736,16 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.739413241946</v>
+        <v>70.46943770194622</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>220.8610019386828</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>107.4402032057513</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24917,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>200.2505829880646</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.9146911261644</v>
+        <v>24.56519224764125</v>
       </c>
       <c r="U32" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>25.5113113943446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>131.0983492671509</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>124.3433128285792</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,10 +25207,10 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>112.7099275710098</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25248,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>50.14070125298388</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25284,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>71.44310047544772</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>147.7475565214886</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>45.69268990050639</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>380.8146996158979</v>
       </c>
       <c r="H38" t="n">
-        <v>132.5873536501091</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25445,13 +25447,13 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25518,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>71.44310047544815</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>71.44310047544818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>65.91659758874188</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.3328844140846</v>
@@ -25597,16 +25599,16 @@
         <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>80.2617588397971</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>49.75429274962579</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,10 +25642,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
-        <v>166.716099695862</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25682,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25719,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>71.44310047544913</v>
+        <v>71.4431004754482</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.38630935740242</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>81.27467346343477</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>61.08951847611115</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.6062992654567</v>
@@ -25883,7 +25885,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>260.5501969819721</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25962,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25998,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>71.44310047544823</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26007,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>50.14070125298474</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.3031349071981708</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>106.0807600682638</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
         <v>105.5870378728063</v>
@@ -26071,25 +26073,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>664088.6566027983</v>
+        <v>664088.656602798</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>664088.6566027984</v>
+        <v>664088.6566027985</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>664088.6566027984</v>
+        <v>664088.6566027985</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676570.9795712427</v>
+        <v>676570.9795712426</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676570.9795712427</v>
+        <v>676570.9795712426</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664088.6566027985</v>
+        <v>664088.6566027983</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664088.6566027981</v>
+        <v>664088.6566027984</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>664088.6566027984</v>
+        <v>664088.6566027983</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="C2" t="n">
         <v>553011.5286340009</v>
       </c>
       <c r="D2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.528634001</v>
       </c>
       <c r="E2" t="n">
+        <v>406590.8011732855</v>
+      </c>
+      <c r="F2" t="n">
+        <v>406590.8011732855</v>
+      </c>
+      <c r="G2" t="n">
         <v>406590.8011732854</v>
       </c>
-      <c r="F2" t="n">
-        <v>406590.8011732853</v>
-      </c>
-      <c r="G2" t="n">
-        <v>406590.8011732853</v>
-      </c>
       <c r="H2" t="n">
-        <v>406590.8011732853</v>
+        <v>406590.8011732856</v>
       </c>
       <c r="I2" t="n">
-        <v>412474.1404974383</v>
+        <v>412474.1404974385</v>
       </c>
       <c r="J2" t="n">
         <v>412474.1404974383</v>
       </c>
       <c r="K2" t="n">
-        <v>412474.1404974384</v>
+        <v>412474.1404974388</v>
       </c>
       <c r="L2" t="n">
-        <v>412474.1404974384</v>
+        <v>412474.1404974387</v>
       </c>
       <c r="M2" t="n">
+        <v>406590.8011732853</v>
+      </c>
+      <c r="N2" t="n">
         <v>406590.8011732855</v>
       </c>
-      <c r="N2" t="n">
-        <v>406590.8011732853</v>
-      </c>
       <c r="O2" t="n">
-        <v>406590.8011732853</v>
+        <v>406590.8011732855</v>
       </c>
       <c r="P2" t="n">
-        <v>406590.8011732856</v>
+        <v>406590.8011732855</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761242</v>
+        <v>924651.5793761241</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.338246859</v>
+        <v>150597.3382468589</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>420147.7688895312</v>
+        <v>420147.7688895313</v>
       </c>
       <c r="C4" t="n">
-        <v>420147.7688895312</v>
+        <v>420147.7688895313</v>
       </c>
       <c r="D4" t="n">
-        <v>420147.7688895312</v>
+        <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
+        <v>17063.09274441893</v>
+      </c>
+      <c r="F4" t="n">
         <v>17063.09274441891</v>
       </c>
-      <c r="F4" t="n">
-        <v>17063.09274441892</v>
-      </c>
       <c r="G4" t="n">
-        <v>17063.09274441892</v>
+        <v>17063.09274441893</v>
       </c>
       <c r="H4" t="n">
-        <v>17063.09274441893</v>
+        <v>17063.09274441891</v>
       </c>
       <c r="I4" t="n">
-        <v>20188.9926298272</v>
+        <v>20188.99262982717</v>
       </c>
       <c r="J4" t="n">
-        <v>20188.9926298272</v>
+        <v>20188.99262982717</v>
       </c>
       <c r="K4" t="n">
-        <v>20188.99262982721</v>
+        <v>20188.99262982716</v>
       </c>
       <c r="L4" t="n">
-        <v>20188.9926298272</v>
+        <v>20188.99262982716</v>
       </c>
       <c r="M4" t="n">
         <v>17063.09274441892</v>
       </c>
       <c r="N4" t="n">
-        <v>17063.09274441892</v>
+        <v>17063.09274441891</v>
       </c>
       <c r="O4" t="n">
-        <v>17063.09274441892</v>
+        <v>17063.09274441891</v>
       </c>
       <c r="P4" t="n">
         <v>17063.09274441891</v>
@@ -26476,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>57906.41050425674</v>
+      </c>
+      <c r="F5" t="n">
+        <v>57906.41050425672</v>
+      </c>
+      <c r="G5" t="n">
         <v>57906.41050425675</v>
       </c>
-      <c r="F5" t="n">
-        <v>57906.41050425674</v>
-      </c>
-      <c r="G5" t="n">
-        <v>57906.41050425674</v>
-      </c>
       <c r="H5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
@@ -26500,16 +26502,16 @@
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425675</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99236.15974446974</v>
+        <v>99236.15974446954</v>
       </c>
       <c r="C6" t="n">
-        <v>99236.15974446974</v>
+        <v>99236.15974446965</v>
       </c>
       <c r="D6" t="n">
-        <v>99236.15974446974</v>
+        <v>99236.15974446977</v>
       </c>
       <c r="E6" t="n">
-        <v>-593030.2814515145</v>
+        <v>-593030.2814515142</v>
       </c>
       <c r="F6" t="n">
         <v>331621.2979246099</v>
@@ -26537,31 +26539,31 @@
         <v>331621.2979246097</v>
       </c>
       <c r="H6" t="n">
-        <v>331621.2979246097</v>
+        <v>331621.29792461</v>
       </c>
       <c r="I6" t="n">
-        <v>328364.0081244245</v>
+        <v>328364.0081244247</v>
       </c>
       <c r="J6" t="n">
-        <v>333259.4473950727</v>
+        <v>333259.4473950728</v>
       </c>
       <c r="K6" t="n">
-        <v>333259.4473950729</v>
+        <v>333259.4473950732</v>
       </c>
       <c r="L6" t="n">
-        <v>333259.4473950728</v>
+        <v>333259.4473950731</v>
       </c>
       <c r="M6" t="n">
         <v>181023.9596777508</v>
       </c>
       <c r="N6" t="n">
-        <v>331621.2979246097</v>
+        <v>331621.2979246099</v>
       </c>
       <c r="O6" t="n">
-        <v>331621.2979246097</v>
+        <v>331621.2979246099</v>
       </c>
       <c r="P6" t="n">
-        <v>331621.29792461</v>
+        <v>331621.2979246099</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="G3" t="n">
         <v>919.4890146074873</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
     </row>
     <row r="4">
@@ -26799,10 +26801,10 @@
         <v>622.7228616087749</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.722861608775</v>
       </c>
       <c r="H4" t="n">
         <v>622.7228616087749</v>
@@ -26820,16 +26822,16 @@
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.722861608775</v>
       </c>
       <c r="N4" t="n">
         <v>622.7228616087749</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087749</v>
       </c>
     </row>
   </sheetData>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.964942509355483e-14</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304594</v>
+        <v>604.3134871304587</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31753,7 +31755,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H11" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I11" t="n">
         <v>142.5069356207243</v>
@@ -31762,7 +31764,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
         <v>583.325679086115</v>
@@ -31771,22 +31773,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O11" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R11" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T11" t="n">
         <v>16.18115843796694</v>
@@ -31841,22 +31843,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K12" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L12" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q12" t="n">
         <v>252.4604554824181</v>
@@ -31865,13 +31867,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S12" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,31 +31910,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H13" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J13" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K13" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L13" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M13" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O13" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P13" t="n">
         <v>200.5390467268526</v>
@@ -31941,16 +31943,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H14" t="n">
         <v>37.85614822451829</v>
@@ -31996,40 +31998,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K14" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L14" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M14" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P14" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R14" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T14" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U14" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32071,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J15" t="n">
         <v>186.8557817326405</v>
@@ -32084,13 +32086,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N15" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P15" t="n">
         <v>377.6671011130263</v>
@@ -32105,7 +32107,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T15" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U15" t="n">
         <v>0.1301163699916256</v>
@@ -32151,7 +32153,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J16" t="n">
         <v>117.2273125672529</v>
@@ -32160,7 +32162,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L16" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M16" t="n">
         <v>259.9139193258508</v>
@@ -32172,7 +32174,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P16" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q16" t="n">
         <v>138.8428412057306</v>
@@ -32181,13 +32183,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T16" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H20" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I20" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J20" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L20" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M20" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O20" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q20" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R20" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S20" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T20" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U20" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,31 +32545,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H21" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I21" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J21" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K21" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L21" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O21" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P21" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q21" t="n">
         <v>252.4604554824181</v>
@@ -32576,13 +32578,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S21" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T21" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H22" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I22" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J22" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K22" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L22" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M22" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N22" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O22" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P22" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q22" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S22" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T22" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H23" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I23" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J23" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L23" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M23" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N23" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O23" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q23" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R23" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S23" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T23" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U23" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,31 +32782,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H24" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I24" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J24" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K24" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L24" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O24" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P24" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q24" t="n">
         <v>252.4604554824181</v>
@@ -32813,13 +32815,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S24" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T24" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H25" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I25" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J25" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K25" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L25" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M25" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N25" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O25" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P25" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q25" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S25" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T25" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H26" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I26" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J26" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L26" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M26" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N26" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O26" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q26" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R26" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S26" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T26" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U26" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,31 +33019,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H27" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I27" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J27" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K27" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L27" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O27" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P27" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q27" t="n">
         <v>252.4604554824181</v>
@@ -33050,13 +33052,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S27" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T27" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H28" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I28" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J28" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K28" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L28" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M28" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N28" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O28" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P28" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q28" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S28" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T28" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H29" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I29" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J29" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L29" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M29" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O29" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q29" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R29" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S29" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T29" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U29" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,31 +33256,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H30" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I30" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J30" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K30" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L30" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O30" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P30" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q30" t="n">
         <v>252.4604554824181</v>
@@ -33287,13 +33289,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S30" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T30" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H31" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I31" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J31" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K31" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L31" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M31" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N31" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O31" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P31" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q31" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S31" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T31" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H32" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I32" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J32" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L32" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M32" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O32" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q32" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R32" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S32" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T32" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U32" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,31 +33493,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H33" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I33" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J33" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K33" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L33" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O33" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q33" t="n">
         <v>252.4604554824181</v>
@@ -33524,13 +33526,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S33" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T33" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H34" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I34" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J34" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K34" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L34" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M34" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N34" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O34" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P34" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q34" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S34" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T34" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H35" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I35" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J35" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L35" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M35" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R35" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T35" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U35" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,31 +33730,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H36" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I36" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J36" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K36" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L36" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q36" t="n">
         <v>252.4604554824181</v>
@@ -33761,13 +33763,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T36" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H37" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I37" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J37" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K37" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L37" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M37" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N37" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O37" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P37" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q37" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S37" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T37" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H38" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I38" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J38" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L38" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M38" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R38" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T38" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U38" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,31 +33967,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H39" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I39" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J39" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K39" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L39" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q39" t="n">
         <v>252.4604554824181</v>
@@ -33998,13 +34000,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T39" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H40" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I40" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J40" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K40" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L40" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M40" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N40" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O40" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P40" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q40" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S40" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T40" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H41" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I41" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L41" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M41" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R41" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S41" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T41" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U41" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,31 +34204,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H42" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I42" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J42" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K42" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L42" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q42" t="n">
         <v>252.4604554824181</v>
@@ -34235,13 +34237,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T42" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H43" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I43" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J43" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K43" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L43" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M43" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N43" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O43" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P43" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q43" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T43" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H44" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I44" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936366</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M44" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R44" t="n">
-        <v>232.1963892013568</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S44" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T44" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U44" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,31 +34441,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H45" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I45" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J45" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K45" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L45" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q45" t="n">
         <v>252.4604554824181</v>
@@ -34472,13 +34474,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T45" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H46" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I46" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J46" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K46" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L46" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M46" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N46" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O46" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P46" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q46" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T46" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L11" t="n">
         <v>347.5592641161277</v>
@@ -35419,19 +35421,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O11" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P11" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
-        <v>603.818075892</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N12" t="n">
-        <v>622.7228616087749</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9652704179365</v>
+        <v>498.9447310319517</v>
       </c>
       <c r="P12" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K13" t="n">
         <v>170.3709935295874</v>
@@ -35574,7 +35576,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M13" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N13" t="n">
         <v>297.8659196396851</v>
@@ -35586,7 +35588,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.6846713669515</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O14" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P14" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597379</v>
       </c>
       <c r="K15" t="n">
         <v>181.524853957753</v>
@@ -35732,10 +35734,10 @@
         <v>290.8730133158208</v>
       </c>
       <c r="M15" t="n">
-        <v>622.7228616087749</v>
+        <v>416.3781095769376</v>
       </c>
       <c r="N15" t="n">
-        <v>383.0429961922271</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="O15" t="n">
         <v>327.9652704179364</v>
@@ -35744,10 +35746,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
-        <v>207.162725755761</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R15" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K16" t="n">
         <v>170.3709935295874</v>
@@ -35814,13 +35816,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N16" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O16" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q16" t="n">
         <v>52.68079795403621</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5043145717682</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L18" t="n">
         <v>290.8730133158208</v>
@@ -35972,16 +35974,16 @@
         <v>358.9874790390622</v>
       </c>
       <c r="N18" t="n">
-        <v>383.0429961922271</v>
+        <v>622.722861608775</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179364</v>
+        <v>330.9679516790835</v>
       </c>
       <c r="P18" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L20" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N20" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O20" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P20" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>186.1091904063826</v>
+        <v>92.62341400781868</v>
       </c>
       <c r="K21" t="n">
         <v>445.9900909703316</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N21" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P21" t="n">
-        <v>337.6468836151952</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R21" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
@@ -36285,19 +36287,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M22" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N22" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O22" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P22" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669509</v>
+        <v>205.5783561699792</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L23" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N23" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O23" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P23" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q23" t="n">
-        <v>249.7617409635312</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R23" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K24" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158208</v>
+        <v>299.658276245104</v>
       </c>
       <c r="M24" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N24" t="n">
-        <v>572.528192332541</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179364</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="P24" t="n">
         <v>243.6926936986961</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
@@ -36522,19 +36524,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M25" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N25" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O25" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P25" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>205.5783561699799</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K26" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N26" t="n">
-        <v>430.1516543891397</v>
+        <v>503.0453391921679</v>
       </c>
       <c r="O26" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P26" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597376</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K27" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L27" t="n">
-        <v>290.8730133158208</v>
+        <v>606.4492447965431</v>
       </c>
       <c r="M27" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N27" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O27" t="n">
-        <v>367.7727419683457</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P27" t="n">
         <v>243.6926936986961</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
@@ -36759,19 +36761,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M28" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N28" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O28" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P28" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969962</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M29" t="n">
-        <v>491.6096643845884</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O29" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P29" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722498</v>
+        <v>82.32727126020748</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>77.18830519559606</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K30" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158208</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="M30" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N30" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O30" t="n">
-        <v>327.9652704179364</v>
+        <v>347.6702284041186</v>
       </c>
       <c r="P30" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R30" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
@@ -36996,19 +36998,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M31" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N31" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O31" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P31" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969962</v>
       </c>
       <c r="K32" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O32" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P32" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q32" t="n">
-        <v>249.7617409635312</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722498</v>
+        <v>82.32727126020748</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.01815506597376</v>
+        <v>117.5051466518324</v>
       </c>
       <c r="K33" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M33" t="n">
-        <v>625.8619818632095</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N33" t="n">
-        <v>383.0429961922271</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="O33" t="n">
-        <v>641.1322360870907</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P33" t="n">
         <v>243.6926936986961</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
@@ -37233,19 +37235,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M34" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N34" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O34" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P34" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O35" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P35" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722513</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K36" t="n">
-        <v>300.2644154702823</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N36" t="n">
-        <v>622.7228616087749</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O36" t="n">
-        <v>327.9652704179364</v>
+        <v>548.0104956748437</v>
       </c>
       <c r="P36" t="n">
         <v>243.6926936986961</v>
@@ -37406,7 +37408,7 @@
         <v>112.4786813963966</v>
       </c>
       <c r="R36" t="n">
-        <v>22.63732142078702</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
@@ -37470,19 +37472,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M37" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N37" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O37" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P37" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.6846713669515</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O38" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P38" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722467</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.01815506597376</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K39" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L39" t="n">
+        <v>290.8730133158209</v>
+      </c>
+      <c r="M39" t="n">
         <v>622.7228616087749</v>
       </c>
-      <c r="M39" t="n">
-        <v>511.6480930155943</v>
-      </c>
       <c r="N39" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O39" t="n">
-        <v>327.9652704179364</v>
+        <v>571.3776715384963</v>
       </c>
       <c r="P39" t="n">
         <v>243.6926936986961</v>
@@ -37643,7 +37645,7 @@
         <v>112.4786813963966</v>
       </c>
       <c r="R39" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
@@ -37707,19 +37709,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M40" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N40" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O40" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P40" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O41" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P41" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K42" t="n">
         <v>445.9900909703316</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N42" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P42" t="n">
-        <v>360.2842050359813</v>
+        <v>276.2979526405409</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K43" t="n">
         <v>170.3709935295874</v>
@@ -37944,19 +37946,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M43" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N43" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O43" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P43" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669503</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P44" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>63.7506907699858</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K45" t="n">
-        <v>181.524853957753</v>
+        <v>329.8669931509806</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M45" t="n">
-        <v>622.7228616087747</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N45" t="n">
-        <v>622.7228616087747</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P45" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K46" t="n">
         <v>170.3709935295874</v>
@@ -38181,19 +38183,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M46" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N46" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O46" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P46" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1452804.030786085</v>
+        <v>1480269.374751088</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584559</v>
+        <v>6486630.972584557</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8557165.656919772</v>
+        <v>8557165.656919774</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>77.6907780914398</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>23.42503766593853</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>21.69126064627715</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8112657109832</v>
+        <v>154.3681652355359</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>106.0157426671687</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2285878140705</v>
+        <v>278.282170058028</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>269.8494506128108</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>145.6845836051504</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>85.22504708635361</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874195</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>85.97214763519295</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>20.36636381275512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>384.0724045359575</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>124.1366659732908</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>86.20197997995274</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1976,7 +1976,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T18" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512208</v>
       </c>
       <c r="U18" t="n">
         <v>225.8112657109832</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>59.8066178928764</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.3328844140846</v>
@@ -2022,7 +2022,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>10.74328712306202</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>86.34150938489132</v>
       </c>
       <c r="G20" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
-        <v>49.19656432164803</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>42.99365986874195</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>134.9469826428689</v>
+        <v>84.8062813898859</v>
       </c>
       <c r="T21" t="n">
         <v>192.192932426668</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>46.79435174754591</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>195.1205252336517</v>
+        <v>186.3043500332744</v>
       </c>
       <c r="T22" t="n">
         <v>220.8610019386828</v>
@@ -2298,13 +2298,13 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>138.8171014408866</v>
       </c>
       <c r="C23" t="n">
-        <v>148.9903857293489</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>116.8443949404006</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>174.1094677069946</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>44.79473820916485</v>
+        <v>8.899234058689958</v>
       </c>
       <c r="T26" t="n">
         <v>206.9146911261644</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>86.1183706421796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>77.22810184760124</v>
       </c>
     </row>
     <row r="29">
@@ -2797,16 +2797,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>195.3237932237982</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>165.6478640306026</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>77.22810184760124</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>100.7045585449833</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>134.3588925334247</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>228.816666169865</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>56.53188619999509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>93.29940396298527</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
         <v>220.8610019386828</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.00549416136116</v>
+        <v>93.28224147709128</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3657483393379</v>
+        <v>63.92264786389057</v>
       </c>
       <c r="H36" t="n">
-        <v>42.99365986874151</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>30.97350647794671</v>
       </c>
       <c r="T37" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>59.6105163252677</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>255.6722289793578</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>147.1175334961106</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U39" t="n">
-        <v>154.3681652355345</v>
+        <v>154.3681652355359</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>72.8802220295418</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>195.1205252336517</v>
+        <v>171.8758844840305</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>138.9287518061352</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>149.3292696426266</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>42.99365986874151</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742027</v>
       </c>
       <c r="T42" t="n">
         <v>192.192932426668</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.78967105566853</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3915,7 +3915,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>56.03318831720181</v>
       </c>
     </row>
     <row r="44">
@@ -3982,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>179.8034813366173</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4036,16 +4036,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
-        <v>169.062990862623</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.08846516835646</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>28.73596482244028</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2004.639257909882</v>
+        <v>1714.152274395167</v>
       </c>
       <c r="C11" t="n">
         <v>1635.67674096947</v>
@@ -5029,64 +5029,64 @@
         <v>1249.888488371226</v>
       </c>
       <c r="F11" t="n">
-        <v>838.9025835816184</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="G11" t="n">
         <v>423.1386449296419</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687844</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J11" t="n">
         <v>181.1756535819836</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L11" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O11" t="n">
         <v>2002.031077317524</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S11" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T11" t="n">
-        <v>2281.886707923822</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="U11" t="n">
-        <v>2028.300912117901</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="V11" t="n">
-        <v>2028.300912117901</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="W11" t="n">
-        <v>2004.639257909882</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="X11" t="n">
-        <v>2004.639257909882</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="Y11" t="n">
-        <v>2004.639257909882</v>
+        <v>2100.752114459289</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>859.1382992416502</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C12" t="n">
-        <v>684.6852699605232</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D12" t="n">
-        <v>535.7508602992719</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E12" t="n">
-        <v>376.5134052938164</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F12" t="n">
-        <v>229.9788473207014</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G12" t="n">
-        <v>93.24576819005705</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H12" t="n">
-        <v>71.33540390088821</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K12" t="n">
-        <v>583.0451988570709</v>
+        <v>675.596117491649</v>
       </c>
       <c r="L12" t="n">
-        <v>871.0094820397335</v>
+        <v>1056.575048691646</v>
       </c>
       <c r="M12" t="n">
-        <v>1226.407086288405</v>
+        <v>1411.972652940318</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.61965251871</v>
+        <v>1791.185219170623</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.305270232467</v>
+        <v>2115.87083688438</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.561036994176</v>
+        <v>2357.126603646089</v>
       </c>
       <c r="Q12" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V12" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W12" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X12" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y12" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.9174522430992</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="C13" t="n">
-        <v>324.9174522430992</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="D13" t="n">
-        <v>324.9174522430992</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="E13" t="n">
-        <v>324.9174522430992</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="F13" t="n">
-        <v>324.9174522430992</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G13" t="n">
-        <v>156.9044376834178</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H13" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L13" t="n">
         <v>513.4770511394356</v>
@@ -5223,28 +5223,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R13" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S13" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T13" t="n">
-        <v>1386.128447054742</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="U13" t="n">
-        <v>1097.008661383964</v>
+        <v>1224.350082043337</v>
       </c>
       <c r="V13" t="n">
-        <v>842.3241731780771</v>
+        <v>969.6655938374497</v>
       </c>
       <c r="W13" t="n">
-        <v>552.9070031411165</v>
+        <v>680.2484238004891</v>
       </c>
       <c r="X13" t="n">
-        <v>324.9174522430992</v>
+        <v>452.2588729024718</v>
       </c>
       <c r="Y13" t="n">
-        <v>324.9174522430992</v>
+        <v>231.4662937589417</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1883.263542686942</v>
+        <v>971.0036112431364</v>
       </c>
       <c r="C14" t="n">
-        <v>1514.301025746531</v>
+        <v>971.0036112431364</v>
       </c>
       <c r="D14" t="n">
-        <v>1156.03532713978</v>
+        <v>612.737912636386</v>
       </c>
       <c r="E14" t="n">
-        <v>770.247074541536</v>
+        <v>612.737912636386</v>
       </c>
       <c r="F14" t="n">
-        <v>770.247074541536</v>
+        <v>612.737912636386</v>
       </c>
       <c r="G14" t="n">
-        <v>354.4831358895594</v>
+        <v>196.9739739844095</v>
       </c>
       <c r="H14" t="n">
         <v>49.81782892870199</v>
@@ -5278,16 +5278,16 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K14" t="n">
         <v>428.7854999799488</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549152</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N14" t="n">
         <v>1613.248129085907</v>
@@ -5299,31 +5299,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326145</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U14" t="n">
-        <v>2155.838745326145</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="V14" t="n">
-        <v>2155.838745326145</v>
+        <v>1697.23802477433</v>
       </c>
       <c r="W14" t="n">
-        <v>2155.838745326145</v>
+        <v>1344.469369504216</v>
       </c>
       <c r="X14" t="n">
-        <v>2155.838745326145</v>
+        <v>971.0036112431364</v>
       </c>
       <c r="Y14" t="n">
-        <v>2155.838745326145</v>
+        <v>971.0036112431364</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.1382992416502</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C15" t="n">
-        <v>684.6852699605232</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D15" t="n">
-        <v>535.7508602992719</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E15" t="n">
-        <v>376.5134052938164</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F15" t="n">
-        <v>229.9788473207014</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G15" t="n">
-        <v>143.8929411728695</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H15" t="n">
         <v>49.81782892870199</v>
@@ -5357,31 +5357,31 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
-        <v>109.235802444016</v>
+        <v>141.5150087964425</v>
       </c>
       <c r="K15" t="n">
-        <v>288.9454078621914</v>
+        <v>583.0451988570708</v>
       </c>
       <c r="L15" t="n">
-        <v>905.4410408548786</v>
+        <v>871.0094820397335</v>
       </c>
       <c r="M15" t="n">
-        <v>1434.383601146896</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N15" t="n">
-        <v>1813.5961673772</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O15" t="n">
-        <v>2138.281785090957</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P15" t="n">
-        <v>2379.537551852667</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q15" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S15" t="n">
         <v>2354.581362957454</v>
@@ -5390,7 +5390,7 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V15" t="n">
         <v>1697.202791960407</v>
@@ -5399,10 +5399,10 @@
         <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.81782892870199</v>
+        <v>347.8475619234308</v>
       </c>
       <c r="C16" t="n">
-        <v>49.81782892870199</v>
+        <v>347.8475619234308</v>
       </c>
       <c r="D16" t="n">
-        <v>49.81782892870199</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="E16" t="n">
         <v>49.81782892870199</v>
@@ -5436,22 +5436,22 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N16" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O16" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P16" t="n">
         <v>1557.066378230431</v>
@@ -5460,28 +5460,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.351743482101</v>
+        <v>1522.379815038066</v>
       </c>
       <c r="T16" t="n">
-        <v>1085.259822331916</v>
+        <v>1522.379815038066</v>
       </c>
       <c r="U16" t="n">
-        <v>796.1400366611377</v>
+        <v>1522.379815038066</v>
       </c>
       <c r="V16" t="n">
-        <v>541.4555484552509</v>
+        <v>1267.695326832179</v>
       </c>
       <c r="W16" t="n">
-        <v>252.0383784182903</v>
+        <v>978.278156795218</v>
       </c>
       <c r="X16" t="n">
-        <v>231.4662937589417</v>
+        <v>750.2886058972007</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.4662937589417</v>
+        <v>529.4960267536705</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>862.5272891737792</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="C17" t="n">
-        <v>862.5272891737792</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="D17" t="n">
-        <v>504.2615905670287</v>
+        <v>1543.987250913475</v>
       </c>
       <c r="E17" t="n">
-        <v>118.4733379687844</v>
+        <v>1158.19899831523</v>
       </c>
       <c r="F17" t="n">
-        <v>118.4733379687844</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G17" t="n">
-        <v>118.4733379687844</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549154</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M17" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N17" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O17" t="n">
         <v>2002.031077317524</v>
@@ -5536,31 +5536,31 @@
         <v>2299.34732796285</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S17" t="n">
-        <v>2490.8914464351</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T17" t="n">
-        <v>2490.8914464351</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.500874744907</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.500874744907</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="W17" t="n">
-        <v>2012.732219474793</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="X17" t="n">
-        <v>1639.266461213713</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="Y17" t="n">
-        <v>1249.127129237901</v>
+        <v>1902.252949520225</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.1382992416507</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C18" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D18" t="n">
-        <v>535.7508602992724</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6781532488151</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G18" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J18" t="n">
-        <v>234.0659274310208</v>
+        <v>119.1040605898647</v>
       </c>
       <c r="K18" t="n">
-        <v>583.0451988570712</v>
+        <v>560.634250650493</v>
       </c>
       <c r="L18" t="n">
-        <v>871.0094820397338</v>
+        <v>848.5985338331556</v>
       </c>
       <c r="M18" t="n">
-        <v>1226.407086288405</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N18" t="n">
-        <v>1605.61965251871</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O18" t="n">
-        <v>1930.305270232467</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P18" t="n">
-        <v>2171.561036994176</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q18" t="n">
-        <v>2490.8914464351</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.35490019215</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026673</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.353636261719</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>978.7897733331396</v>
+        <v>833.7717100099212</v>
       </c>
       <c r="C19" t="n">
-        <v>918.37904818882</v>
+        <v>664.8355270820143</v>
       </c>
       <c r="D19" t="n">
-        <v>768.2624087764842</v>
+        <v>514.7188876696786</v>
       </c>
       <c r="E19" t="n">
-        <v>620.3493151940911</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="F19" t="n">
-        <v>473.4593676961807</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G19" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H19" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477634</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K19" t="n">
         <v>242.1145636490679</v>
@@ -5697,28 +5697,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R19" t="n">
-        <v>1609.220368204927</v>
+        <v>1598.368563030117</v>
       </c>
       <c r="S19" t="n">
-        <v>1609.220368204927</v>
+        <v>1598.368563030117</v>
       </c>
       <c r="T19" t="n">
-        <v>1609.220368204927</v>
+        <v>1598.368563030117</v>
       </c>
       <c r="U19" t="n">
-        <v>1609.220368204927</v>
+        <v>1309.248777359338</v>
       </c>
       <c r="V19" t="n">
-        <v>1609.220368204927</v>
+        <v>1054.564289153451</v>
       </c>
       <c r="W19" t="n">
-        <v>1609.220368204927</v>
+        <v>1054.564289153451</v>
       </c>
       <c r="X19" t="n">
-        <v>1381.230817306909</v>
+        <v>1054.564289153451</v>
       </c>
       <c r="Y19" t="n">
-        <v>1160.438238163379</v>
+        <v>833.7717100099212</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1681.011941223738</v>
+        <v>1307.546182962659</v>
       </c>
       <c r="C20" t="n">
-        <v>1312.049424283326</v>
+        <v>938.5836660222474</v>
       </c>
       <c r="D20" t="n">
-        <v>1312.049424283326</v>
+        <v>938.5836660222474</v>
       </c>
       <c r="E20" t="n">
-        <v>926.261171685082</v>
+        <v>552.7954134240031</v>
       </c>
       <c r="F20" t="n">
-        <v>515.2752668954745</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G20" t="n">
-        <v>99.51132824349799</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H20" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J20" t="n">
         <v>181.1756535819834</v>
@@ -5764,40 +5764,40 @@
         <v>1187.397991240659</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T20" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="U20" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="V20" t="n">
-        <v>2033.780596493852</v>
+        <v>2033.780596493853</v>
       </c>
       <c r="W20" t="n">
-        <v>1681.011941223738</v>
+        <v>1681.011941223739</v>
       </c>
       <c r="X20" t="n">
-        <v>1681.011941223738</v>
+        <v>1307.546182962659</v>
       </c>
       <c r="Y20" t="n">
-        <v>1681.011941223738</v>
+        <v>1307.546182962659</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416507</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605237</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992724</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E21" t="n">
-        <v>376.5134052938169</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F21" t="n">
-        <v>229.9788473207019</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G21" t="n">
-        <v>93.2457681900575</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H21" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J21" t="n">
         <v>234.0659274310208</v>
       </c>
       <c r="K21" t="n">
-        <v>531.3276987466002</v>
+        <v>560.634250650493</v>
       </c>
       <c r="L21" t="n">
-        <v>819.2919819292628</v>
+        <v>848.5985338331556</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.689586177934</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.185219170622</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O21" t="n">
-        <v>2115.870836884379</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P21" t="n">
-        <v>2357.126603646088</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q21" t="n">
-        <v>2468.48049822852</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957454</v>
+        <v>2405.228535940266</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779001</v>
+        <v>2211.094260761814</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.35490019215</v>
+        <v>1983.002073174962</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960407</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232205</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026673</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.353636261719</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.08485089592008</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="C22" t="n">
-        <v>97.08485089592008</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="D22" t="n">
-        <v>97.08485089592008</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="E22" t="n">
-        <v>97.08485089592008</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F22" t="n">
-        <v>49.81782892870199</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G22" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H22" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J22" t="n">
-        <v>73.44728005477634</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K22" t="n">
         <v>242.1145636490679</v>
@@ -5934,28 +5934,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R22" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S22" t="n">
-        <v>1308.351743482101</v>
+        <v>1421.034156050104</v>
       </c>
       <c r="T22" t="n">
-        <v>1085.259822331916</v>
+        <v>1197.942234899919</v>
       </c>
       <c r="U22" t="n">
-        <v>796.1400366611377</v>
+        <v>908.8224492291412</v>
       </c>
       <c r="V22" t="n">
-        <v>796.1400366611377</v>
+        <v>654.1379610232543</v>
       </c>
       <c r="W22" t="n">
-        <v>506.7228666241771</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="X22" t="n">
-        <v>278.7333157261598</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.7333157261598</v>
+        <v>364.7207909862938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1414.32401404735</v>
+        <v>1151.839610435069</v>
       </c>
       <c r="C23" t="n">
-        <v>1263.828674926796</v>
+        <v>782.8770934946576</v>
       </c>
       <c r="D23" t="n">
-        <v>1263.828674926796</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="E23" t="n">
-        <v>878.0404223285514</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="F23" t="n">
-        <v>467.0545175389437</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29057888696727</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696727</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I23" t="n">
         <v>51.29057888696727</v>
       </c>
       <c r="J23" t="n">
-        <v>254.8131514952472</v>
+        <v>189.7538958209945</v>
       </c>
       <c r="K23" t="n">
-        <v>502.4229978932125</v>
+        <v>437.3637422189599</v>
       </c>
       <c r="L23" t="n">
-        <v>846.506669368179</v>
+        <v>781.4474136939264</v>
       </c>
       <c r="M23" t="n">
-        <v>1261.035489153923</v>
+        <v>1195.97623347967</v>
       </c>
       <c r="N23" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P23" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
-        <v>2548.084201475011</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="T23" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.47624323941</v>
       </c>
       <c r="U23" t="n">
-        <v>2564.528944348363</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V23" t="n">
-        <v>2564.528944348363</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="W23" t="n">
-        <v>2564.528944348363</v>
+        <v>1292.058904819803</v>
       </c>
       <c r="X23" t="n">
-        <v>2191.063186087284</v>
+        <v>1292.058904819803</v>
       </c>
       <c r="Y23" t="n">
-        <v>1800.923854111472</v>
+        <v>1292.058904819803</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.7757971549145</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C24" t="n">
-        <v>758.3227678737875</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G24" t="n">
         <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915348</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
         <v>51.29057888696727</v>
@@ -6071,34 +6071,34 @@
         <v>235.5386773892861</v>
       </c>
       <c r="K24" t="n">
-        <v>634.2717485637559</v>
+        <v>656.682696770335</v>
       </c>
       <c r="L24" t="n">
-        <v>922.2360317464185</v>
+        <v>944.6469799529976</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.63363599509</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N24" t="n">
-        <v>1656.846202225395</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.531819939152</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P24" t="n">
-        <v>2222.787586700861</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q24" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S24" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T24" t="n">
-        <v>2234.084585692266</v>
+        <v>2234.084585692265</v>
       </c>
       <c r="U24" t="n">
         <v>2005.992398105413</v>
@@ -6113,7 +6113,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>783.1710836614534</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="C25" t="n">
-        <v>614.2349007335465</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="D25" t="n">
-        <v>464.1182613212108</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="E25" t="n">
-        <v>316.2051677388176</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="F25" t="n">
-        <v>169.3152202409073</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G25" t="n">
         <v>51.29057888696727</v>
@@ -6171,28 +6171,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R25" t="n">
-        <v>1610.693118163192</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S25" t="n">
-        <v>1413.601678533241</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="T25" t="n">
-        <v>1413.601678533241</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="U25" t="n">
-        <v>1413.601678533241</v>
+        <v>797.612786619403</v>
       </c>
       <c r="V25" t="n">
-        <v>1413.601678533241</v>
+        <v>797.612786619403</v>
       </c>
       <c r="W25" t="n">
-        <v>1413.601678533241</v>
+        <v>621.7446374204185</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.612127635223</v>
+        <v>621.7446374204185</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.8195484916931</v>
+        <v>400.9520582768884</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1236.306120935302</v>
+        <v>1217.027253215231</v>
       </c>
       <c r="C26" t="n">
-        <v>1236.306120935302</v>
+        <v>848.0647362748191</v>
       </c>
       <c r="D26" t="n">
-        <v>878.0404223285514</v>
+        <v>848.0647362748191</v>
       </c>
       <c r="E26" t="n">
-        <v>878.0404223285514</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0545175389437</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J26" t="n">
-        <v>254.8131514952467</v>
+        <v>254.8131514952472</v>
       </c>
       <c r="K26" t="n">
-        <v>502.4229978932121</v>
+        <v>502.4229978932125</v>
       </c>
       <c r="L26" t="n">
-        <v>846.5066693681786</v>
+        <v>846.506669368179</v>
       </c>
       <c r="M26" t="n">
-        <v>1261.035489153922</v>
+        <v>1261.035489153923</v>
       </c>
       <c r="N26" t="n">
         <v>1686.885626999171</v>
@@ -6247,31 +6247,31 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2548.08420147501</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2519.281734036075</v>
+        <v>2555.539819036555</v>
       </c>
       <c r="T26" t="n">
-        <v>2310.276995524798</v>
+        <v>2346.535080525278</v>
       </c>
       <c r="U26" t="n">
-        <v>2310.276995524798</v>
+        <v>2346.535080525278</v>
       </c>
       <c r="V26" t="n">
-        <v>1979.214108181228</v>
+        <v>2346.535080525278</v>
       </c>
       <c r="W26" t="n">
-        <v>1626.445452911114</v>
+        <v>1993.766425255164</v>
       </c>
       <c r="X26" t="n">
-        <v>1626.445452911114</v>
+        <v>1993.766425255164</v>
       </c>
       <c r="Y26" t="n">
-        <v>1236.306120935302</v>
+        <v>1603.627093279352</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>303.6163452339656</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8832661033211</v>
+        <v>166.8832661033212</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J27" t="n">
-        <v>110.7085524022813</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K27" t="n">
-        <v>549.3810706752874</v>
+        <v>677.0688674499143</v>
       </c>
       <c r="L27" t="n">
-        <v>837.34535385795</v>
+        <v>965.0331506325768</v>
       </c>
       <c r="M27" t="n">
-        <v>1192.742958106622</v>
+        <v>1320.430754881249</v>
       </c>
       <c r="N27" t="n">
-        <v>1571.955524336926</v>
+        <v>1699.643321111553</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.641142050684</v>
+        <v>2024.32893882531</v>
       </c>
       <c r="P27" t="n">
-        <v>2453.17504976593</v>
+        <v>2265.584705587019</v>
       </c>
       <c r="Q27" t="n">
         <v>2564.528944348363</v>
@@ -6332,10 +6332,10 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S27" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T27" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692266</v>
       </c>
       <c r="U27" t="n">
         <v>2005.992398105413</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>813.1982245381899</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="C28" t="n">
-        <v>813.1982245381899</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="D28" t="n">
-        <v>663.0815851258542</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="E28" t="n">
-        <v>515.1684915434611</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="F28" t="n">
-        <v>368.2785440455507</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="G28" t="n">
-        <v>200.2655294858693</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H28" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J28" t="n">
         <v>74.92003001304161</v>
@@ -6408,28 +6408,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R28" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S28" t="n">
-        <v>1309.824493440366</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T28" t="n">
-        <v>1309.824493440366</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U28" t="n">
-        <v>1309.824493440366</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="V28" t="n">
-        <v>1309.824493440366</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="W28" t="n">
-        <v>1222.836240266447</v>
+        <v>357.2883134694303</v>
       </c>
       <c r="X28" t="n">
-        <v>994.8466893684297</v>
+        <v>129.298762571413</v>
       </c>
       <c r="Y28" t="n">
-        <v>994.8466893684297</v>
+        <v>51.29057888696727</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1247.002939268963</v>
+        <v>1414.32401404735</v>
       </c>
       <c r="C29" t="n">
-        <v>878.0404223285514</v>
+        <v>1045.361497106938</v>
       </c>
       <c r="D29" t="n">
-        <v>878.0404223285514</v>
+        <v>848.0647362748191</v>
       </c>
       <c r="E29" t="n">
-        <v>878.0404223285514</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="F29" t="n">
-        <v>467.0545175389437</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H29" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J29" t="n">
-        <v>182.6484035402487</v>
+        <v>189.7538958209945</v>
       </c>
       <c r="K29" t="n">
-        <v>430.258249938214</v>
+        <v>437.3637422189599</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3419214131804</v>
+        <v>781.4474136939264</v>
       </c>
       <c r="M29" t="n">
         <v>1195.97623347967</v>
@@ -6484,7 +6484,7 @@
         <v>2307.92557020186</v>
       </c>
       <c r="Q29" t="n">
-        <v>2483.024945800757</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
@@ -6493,22 +6493,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2397.207869569977</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U29" t="n">
-        <v>2397.207869569977</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V29" t="n">
-        <v>2397.207869569977</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W29" t="n">
-        <v>2397.207869569977</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X29" t="n">
-        <v>2023.742111308896</v>
+        <v>2191.063186087284</v>
       </c>
       <c r="Y29" t="n">
-        <v>1633.602779333085</v>
+        <v>1800.923854111472</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G30" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J30" t="n">
         <v>235.5386773892861</v>
       </c>
       <c r="K30" t="n">
-        <v>634.2717485637554</v>
+        <v>677.0688674499143</v>
       </c>
       <c r="L30" t="n">
-        <v>922.236031746418</v>
+        <v>965.0331506325768</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.63363599509</v>
+        <v>1320.430754881249</v>
       </c>
       <c r="N30" t="n">
-        <v>1656.846202225394</v>
+        <v>1699.643321111553</v>
       </c>
       <c r="O30" t="n">
-        <v>1981.531819939152</v>
+        <v>2024.32893882531</v>
       </c>
       <c r="P30" t="n">
-        <v>2222.787586700861</v>
+        <v>2265.584705587019</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
@@ -6578,7 +6578,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129.298762571413</v>
+        <v>1088.787981074992</v>
       </c>
       <c r="C31" t="n">
-        <v>129.298762571413</v>
+        <v>919.8517981470852</v>
       </c>
       <c r="D31" t="n">
-        <v>129.298762571413</v>
+        <v>769.7351587347495</v>
       </c>
       <c r="E31" t="n">
-        <v>129.298762571413</v>
+        <v>621.8220651523563</v>
       </c>
       <c r="F31" t="n">
-        <v>129.298762571413</v>
+        <v>474.932117654446</v>
       </c>
       <c r="G31" t="n">
-        <v>51.29057888696726</v>
+        <v>306.9191030947646</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J31" t="n">
         <v>74.92003001304161</v>
@@ -6654,19 +6654,19 @@
         <v>1190.509757383056</v>
       </c>
       <c r="U31" t="n">
-        <v>901.3899717122778</v>
+        <v>1088.787981074992</v>
       </c>
       <c r="V31" t="n">
-        <v>646.7054835063909</v>
+        <v>1088.787981074992</v>
       </c>
       <c r="W31" t="n">
-        <v>357.2883134694303</v>
+        <v>1088.787981074992</v>
       </c>
       <c r="X31" t="n">
-        <v>129.298762571413</v>
+        <v>1088.787981074992</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.298762571413</v>
+        <v>1088.787981074992</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1448.155198841357</v>
+        <v>918.593146558723</v>
       </c>
       <c r="C32" t="n">
-        <v>1079.192681900945</v>
+        <v>782.8770934946576</v>
       </c>
       <c r="D32" t="n">
-        <v>1079.192681900945</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="E32" t="n">
-        <v>693.4044293027011</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="F32" t="n">
-        <v>282.4185245130936</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696726</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I32" t="n">
         <v>51.29057888696726</v>
@@ -6721,31 +6721,31 @@
         <v>2300.820077921115</v>
       </c>
       <c r="Q32" t="n">
-        <v>2483.024945800757</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T32" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U32" t="n">
-        <v>2564.528944348363</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V32" t="n">
-        <v>2564.528944348363</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="W32" t="n">
-        <v>2211.760289078249</v>
+        <v>1292.058904819803</v>
       </c>
       <c r="X32" t="n">
-        <v>1838.294530817169</v>
+        <v>918.593146558723</v>
       </c>
       <c r="Y32" t="n">
-        <v>1448.155198841357</v>
+        <v>918.593146558723</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>235.5386773892861</v>
       </c>
       <c r="K33" t="n">
-        <v>415.2482828074615</v>
+        <v>634.2717485637554</v>
       </c>
       <c r="L33" t="n">
-        <v>703.2125659901241</v>
+        <v>922.236031746418</v>
       </c>
       <c r="M33" t="n">
-        <v>1058.610170238796</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N33" t="n">
-        <v>1437.822736469101</v>
+        <v>1656.846202225394</v>
       </c>
       <c r="O33" t="n">
-        <v>2003.942768145731</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P33" t="n">
-        <v>2245.19853490744</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q33" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>201.407218299303</v>
+        <v>383.9832507772999</v>
       </c>
       <c r="C34" t="n">
-        <v>201.407218299303</v>
+        <v>215.047067849393</v>
       </c>
       <c r="D34" t="n">
-        <v>51.29057888696726</v>
+        <v>215.047067849393</v>
       </c>
       <c r="E34" t="n">
-        <v>51.29057888696726</v>
+        <v>215.047067849393</v>
       </c>
       <c r="F34" t="n">
-        <v>51.29057888696726</v>
+        <v>215.047067849393</v>
       </c>
       <c r="G34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="H34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I34" t="n">
         <v>51.29057888696726</v>
@@ -6882,28 +6882,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R34" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S34" t="n">
-        <v>1412.674110885484</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T34" t="n">
-        <v>1189.582189735299</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U34" t="n">
-        <v>900.4624040645206</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="V34" t="n">
-        <v>900.4624040645206</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="W34" t="n">
-        <v>611.04523402756</v>
+        <v>611.9728016753172</v>
       </c>
       <c r="X34" t="n">
-        <v>383.0556831295427</v>
+        <v>383.9832507772999</v>
       </c>
       <c r="Y34" t="n">
-        <v>383.0556831295427</v>
+        <v>383.9832507772999</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1631.318441908942</v>
+        <v>804.568598467358</v>
       </c>
       <c r="C35" t="n">
-        <v>1262.35592496853</v>
+        <v>435.6060815269462</v>
       </c>
       <c r="D35" t="n">
-        <v>1262.35592496853</v>
+        <v>435.6060815269462</v>
       </c>
       <c r="E35" t="n">
-        <v>876.5676723702861</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="F35" t="n">
-        <v>465.5817675806785</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G35" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819845</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799501</v>
       </c>
       <c r="L35" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549166</v>
       </c>
       <c r="M35" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085909</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S35" t="n">
-        <v>2408.057613948876</v>
+        <v>2396.666960094604</v>
       </c>
       <c r="T35" t="n">
-        <v>2408.057613948876</v>
+        <v>2187.662221583327</v>
       </c>
       <c r="U35" t="n">
-        <v>2408.057613948876</v>
+        <v>1934.076425777406</v>
       </c>
       <c r="V35" t="n">
-        <v>2408.057613948876</v>
+        <v>1934.076425777406</v>
       </c>
       <c r="W35" t="n">
-        <v>2408.057613948876</v>
+        <v>1581.307770507291</v>
       </c>
       <c r="X35" t="n">
-        <v>2408.057613948876</v>
+        <v>1581.307770507291</v>
       </c>
       <c r="Y35" t="n">
-        <v>2017.918281973064</v>
+        <v>1191.16843853148</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.1382992416502</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C36" t="n">
-        <v>684.6852699605232</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D36" t="n">
-        <v>535.7508602992719</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E36" t="n">
-        <v>376.5134052938164</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F36" t="n">
-        <v>229.9788473207014</v>
+        <v>229.9788473207028</v>
       </c>
       <c r="G36" t="n">
-        <v>93.24576819005705</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
-        <v>49.81782892870199</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J36" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K36" t="n">
-        <v>583.0451988570709</v>
+        <v>583.0451988570721</v>
       </c>
       <c r="L36" t="n">
-        <v>871.0094820397335</v>
+        <v>871.0094820397347</v>
       </c>
       <c r="M36" t="n">
-        <v>1226.407086288405</v>
+        <v>1226.407086288406</v>
       </c>
       <c r="N36" t="n">
-        <v>1605.61965251871</v>
+        <v>1605.619652518711</v>
       </c>
       <c r="O36" t="n">
-        <v>1930.305270232467</v>
+        <v>1930.305270232468</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.561036994176</v>
+        <v>2171.561036994177</v>
       </c>
       <c r="Q36" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960407</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232205</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>514.8374303986295</v>
+        <v>366.6671054390021</v>
       </c>
       <c r="C37" t="n">
-        <v>514.8374303986295</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="D37" t="n">
-        <v>364.7207909862938</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="E37" t="n">
-        <v>364.7207909862938</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="F37" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K37" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L37" t="n">
         <v>513.4770511394356</v>
@@ -7119,28 +7119,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R37" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
-        <v>1308.351743482101</v>
+        <v>1577.933998025183</v>
       </c>
       <c r="T37" t="n">
-        <v>1085.259822331916</v>
+        <v>1354.842076874998</v>
       </c>
       <c r="U37" t="n">
-        <v>1085.259822331916</v>
+        <v>1065.72229120422</v>
       </c>
       <c r="V37" t="n">
-        <v>1085.259822331916</v>
+        <v>1065.72229120422</v>
       </c>
       <c r="W37" t="n">
-        <v>795.8426522949553</v>
+        <v>776.3051211672591</v>
       </c>
       <c r="X37" t="n">
-        <v>735.6300095421597</v>
+        <v>548.3155702692418</v>
       </c>
       <c r="Y37" t="n">
-        <v>514.8374303986295</v>
+        <v>548.3155702692418</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>971.003611243136</v>
+        <v>652.8651597550192</v>
       </c>
       <c r="C38" t="n">
-        <v>712.7488344963099</v>
+        <v>652.8651597550192</v>
       </c>
       <c r="D38" t="n">
-        <v>354.4831358895594</v>
+        <v>652.8651597550192</v>
       </c>
       <c r="E38" t="n">
-        <v>354.4831358895594</v>
+        <v>267.076907156775</v>
       </c>
       <c r="F38" t="n">
-        <v>354.4831358895594</v>
+        <v>267.076907156775</v>
       </c>
       <c r="G38" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819845</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799501</v>
       </c>
       <c r="L38" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549166</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N38" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085909</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S38" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T38" t="n">
-        <v>2281.886707923822</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="U38" t="n">
-        <v>2028.300912117901</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.23802477433</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="W38" t="n">
-        <v>1344.469369504216</v>
+        <v>1803.070090056033</v>
       </c>
       <c r="X38" t="n">
-        <v>971.003611243136</v>
+        <v>1429.604331794953</v>
       </c>
       <c r="Y38" t="n">
-        <v>971.003611243136</v>
+        <v>1039.464999819141</v>
       </c>
     </row>
     <row r="39">
@@ -7247,43 +7247,43 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H39" t="n">
-        <v>71.33540390088821</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J39" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K39" t="n">
-        <v>675.596117491649</v>
+        <v>583.0451988570721</v>
       </c>
       <c r="L39" t="n">
-        <v>963.5604006743116</v>
+        <v>871.0094820397347</v>
       </c>
       <c r="M39" t="n">
-        <v>1318.958004922983</v>
+        <v>1226.407086288406</v>
       </c>
       <c r="N39" t="n">
-        <v>1698.170571153288</v>
+        <v>1605.619652518711</v>
       </c>
       <c r="O39" t="n">
-        <v>2022.856188867045</v>
+        <v>1930.305270232468</v>
       </c>
       <c r="P39" t="n">
-        <v>2264.111955628754</v>
+        <v>2171.561036994177</v>
       </c>
       <c r="Q39" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U39" t="n">
         <v>2004.519648147148</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>536.883665828626</v>
+        <v>515.760598766855</v>
       </c>
       <c r="C40" t="n">
-        <v>367.9474829007191</v>
+        <v>346.8244158389481</v>
       </c>
       <c r="D40" t="n">
-        <v>217.8308434883834</v>
+        <v>196.7077764266124</v>
       </c>
       <c r="E40" t="n">
-        <v>217.8308434883834</v>
+        <v>196.7077764266124</v>
       </c>
       <c r="F40" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G40" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H40" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K40" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L40" t="n">
         <v>513.4770511394356</v>
@@ -7356,28 +7356,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R40" t="n">
-        <v>1535.603982316501</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S40" t="n">
-        <v>1338.512542686549</v>
+        <v>1435.608363675603</v>
       </c>
       <c r="T40" t="n">
-        <v>1115.420621536365</v>
+        <v>1435.608363675603</v>
       </c>
       <c r="U40" t="n">
-        <v>826.3008358655866</v>
+        <v>1435.608363675603</v>
       </c>
       <c r="V40" t="n">
-        <v>826.3008358655866</v>
+        <v>1435.608363675603</v>
       </c>
       <c r="W40" t="n">
-        <v>536.883665828626</v>
+        <v>1146.191193638642</v>
       </c>
       <c r="X40" t="n">
-        <v>536.883665828626</v>
+        <v>918.2016427406248</v>
       </c>
       <c r="Y40" t="n">
-        <v>536.883665828626</v>
+        <v>697.4090635970947</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1714.152274395166</v>
+        <v>1573.820201863716</v>
       </c>
       <c r="C41" t="n">
-        <v>1345.189757454754</v>
+        <v>1204.857684923304</v>
       </c>
       <c r="D41" t="n">
-        <v>986.9240588480036</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E41" t="n">
-        <v>601.1358062497593</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F41" t="n">
-        <v>190.1499014601517</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G41" t="n">
         <v>49.81782892870199</v>
@@ -7438,25 +7438,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S41" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T41" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U41" t="n">
-        <v>2490.891446435099</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="V41" t="n">
-        <v>2490.891446435099</v>
+        <v>1960.420041927838</v>
       </c>
       <c r="W41" t="n">
-        <v>2490.891446435099</v>
+        <v>1960.420041927838</v>
       </c>
       <c r="X41" t="n">
-        <v>2490.891446435099</v>
+        <v>1960.420041927838</v>
       </c>
       <c r="Y41" t="n">
-        <v>2100.752114459287</v>
+        <v>1960.420041927838</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416502</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605232</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992719</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E42" t="n">
-        <v>376.5134052938164</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F42" t="n">
-        <v>229.9788473207014</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G42" t="n">
-        <v>93.24576819005705</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H42" t="n">
-        <v>49.81782892870199</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I42" t="n">
         <v>49.81782892870199</v>
@@ -7493,49 +7493,49 @@
         <v>234.0659274310207</v>
       </c>
       <c r="K42" t="n">
-        <v>560.6342506504917</v>
+        <v>675.596117491649</v>
       </c>
       <c r="L42" t="n">
-        <v>848.5985338331543</v>
+        <v>963.5604006743116</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.996138081826</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N42" t="n">
-        <v>1583.208704312131</v>
+        <v>1698.170571153288</v>
       </c>
       <c r="O42" t="n">
-        <v>1907.894322025888</v>
+        <v>2022.856188867045</v>
       </c>
       <c r="P42" t="n">
-        <v>2149.150088787597</v>
+        <v>2264.111955628754</v>
       </c>
       <c r="Q42" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R42" t="n">
         <v>2490.891446435099</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957454</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>831.6867069089295</v>
+        <v>811.7254745799247</v>
       </c>
       <c r="C43" t="n">
-        <v>662.7505239810226</v>
+        <v>811.7254745799247</v>
       </c>
       <c r="D43" t="n">
-        <v>512.6338845686869</v>
+        <v>661.6088351675889</v>
       </c>
       <c r="E43" t="n">
-        <v>364.7207909862938</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="F43" t="n">
-        <v>217.8308434883834</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870199</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H43" t="n">
         <v>49.81782892870199</v>
@@ -7596,25 +7596,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S43" t="n">
-        <v>1609.220368204927</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T43" t="n">
-        <v>1386.128447054742</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="U43" t="n">
-        <v>1386.128447054742</v>
+        <v>1123.009142904197</v>
       </c>
       <c r="V43" t="n">
-        <v>1386.128447054742</v>
+        <v>868.3246546983104</v>
       </c>
       <c r="W43" t="n">
-        <v>1096.711277017781</v>
+        <v>868.3246546983104</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.711277017781</v>
+        <v>868.3246546983104</v>
       </c>
       <c r="Y43" t="n">
-        <v>875.9186978742513</v>
+        <v>811.7254745799247</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1567.021231929388</v>
+        <v>1721.118356055689</v>
       </c>
       <c r="C44" t="n">
-        <v>1567.021231929388</v>
+        <v>1721.118356055689</v>
       </c>
       <c r="D44" t="n">
-        <v>1567.021231929388</v>
+        <v>1362.852657448939</v>
       </c>
       <c r="E44" t="n">
         <v>1181.232979331143</v>
@@ -7654,13 +7654,13 @@
         <v>428.7854999799487</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549154</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O44" t="n">
         <v>2002.031077317524</v>
@@ -7684,16 +7684,16 @@
         <v>2111.257688031501</v>
       </c>
       <c r="V44" t="n">
-        <v>1940.486990190468</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="W44" t="n">
-        <v>1940.486990190468</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="X44" t="n">
-        <v>1567.021231929388</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="Y44" t="n">
-        <v>1567.021231929388</v>
+        <v>1721.118356055689</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J45" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>288.9454078621914</v>
+        <v>675.596117491649</v>
       </c>
       <c r="L45" t="n">
-        <v>871.0094820397335</v>
+        <v>963.5604006743116</v>
       </c>
       <c r="M45" t="n">
-        <v>1226.407086288405</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.61965251871</v>
+        <v>1698.170571153288</v>
       </c>
       <c r="O45" t="n">
-        <v>1930.305270232467</v>
+        <v>2022.856188867045</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.561036994176</v>
+        <v>2264.111955628754</v>
       </c>
       <c r="Q45" t="n">
         <v>2490.891446435099</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>643.5372394375213</v>
+        <v>980.6616575078316</v>
       </c>
       <c r="C46" t="n">
-        <v>474.6010565096144</v>
+        <v>811.7254745799247</v>
       </c>
       <c r="D46" t="n">
-        <v>324.4844170972787</v>
+        <v>661.6088351675889</v>
       </c>
       <c r="E46" t="n">
-        <v>324.4844170972787</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="F46" t="n">
-        <v>324.4844170972787</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G46" t="n">
-        <v>156.4714025375973</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H46" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I46" t="n">
         <v>49.81782892870199</v>
@@ -7836,22 +7836,22 @@
         <v>1412.128928574975</v>
       </c>
       <c r="T46" t="n">
-        <v>1412.128928574975</v>
+        <v>1383.102701481601</v>
       </c>
       <c r="U46" t="n">
-        <v>1412.128928574975</v>
+        <v>1383.102701481601</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.128928574975</v>
+        <v>1383.102701481601</v>
       </c>
       <c r="W46" t="n">
-        <v>1122.711758538015</v>
+        <v>1383.102701481601</v>
       </c>
       <c r="X46" t="n">
-        <v>894.7222076399974</v>
+        <v>1383.102701481601</v>
       </c>
       <c r="Y46" t="n">
-        <v>673.9296284964672</v>
+        <v>1162.310122338071</v>
       </c>
     </row>
   </sheetData>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>170.9794606140149</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>93.95418991649973</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>32.60525894184487</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>331.849848292954</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>175.2979353973188</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>9.967937521059255</v>
       </c>
       <c r="K18" t="n">
-        <v>170.9794606140152</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>22.88434839053379</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>118.7395615125292</v>
+        <v>148.3421391932291</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>239.6798654165478</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.89368480302878</v>
+        <v>7.177264930046306</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.235823996257</v>
+        <v>243.873145417044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>72.89368480302832</v>
+        <v>72.89368480302878</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>261.5786998533644</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>189.4851961403145</v>
       </c>
       <c r="R27" t="n">
         <v>22.88434839053379</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7.177264930046306</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>7.177264930045851</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.2358239962566</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>189.4851961403145</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.177264930045709</v>
+        <v>72.89368480302818</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>221.2358239962566</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>243.8731454170434</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053379</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>170.9794606140149</v>
+        <v>170.9794606140161</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140161</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.5915113372854</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>148.3421391932279</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>116.5915113372854</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>297.0704959544238</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>116.5915113372854</v>
       </c>
       <c r="R45" t="n">
         <v>22.8843483905338</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>287.5821136795678</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23311,22 +23311,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>325.8159310514745</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>71.44310047544869</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>71.44310047544732</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>41.46945842574432</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
         <v>105.5870378728063</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>7.946417756042422</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>112.8843910506698</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>155.9340702860985</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>50.14070125298431</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>50.14070125298387</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>109.1483775984588</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>205.343291576282</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>22.80364120575393</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>126.9132718745715</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>71.4431004754482</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>71.44310047544727</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>107.4402032057514</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.739413241946</v>
+        <v>91.99612611888401</v>
       </c>
       <c r="S19" t="n">
         <v>195.1205252336517</v>
@@ -23946,16 +23946,16 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>320.5345363568201</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>252.4220895696008</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
         <v>67.96895394968163</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>50.14070125298387</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>21.30239922246435</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>50.14070125298298</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>98.62669627538534</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>147.485201092913</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>8.816175200377302</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>243.9167402225939</v>
       </c>
       <c r="C23" t="n">
-        <v>216.2825060416586</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>49.48848947368398</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.485201092913</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>112.4135306295964</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
         <v>301.6186538912489</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.99274476253527</v>
+        <v>115.8882489130102</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
         <v>105.5870378728063</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>200.4046276944114</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>141.3565515044936</v>
       </c>
     </row>
     <row r="29">
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>159.3592483968848</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
@@ -24733,7 +24733,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>41.26682709556187</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
         <v>251.0499378478622</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>89.10478256648335</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>185.5240292690872</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>230.9139992375829</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>182.7896330955917</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>109.8009982140895</v>
       </c>
       <c r="H34" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>101.8211212706665</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
         <v>301.6186538912489</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>42.78198881033897</v>
+        <v>31.50524149460884</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>71.44310047544735</v>
       </c>
       <c r="H36" t="n">
-        <v>50.14070125298432</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
         <v>147.485201092913</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>164.147018755705</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>166.0991390637695</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>109.6006627916497</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>264.4887657693461</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>71.44310047544866</v>
+        <v>71.44310047544732</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
         <v>147.485201092913</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>29.85919121240423</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>23.24464074962128</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>272.6775474593214</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>178.4229888275083</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>50.14070125298432</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>71.44310047544863</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>136.0423091262688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>105.5870378728063</v>
@@ -25836,25 +25836,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>162.551465034893</v>
       </c>
     </row>
     <row r="44">
@@ -25870,10 +25870,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>202.1268887356445</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>158.6892676075119</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>149.7435150135808</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>192.1250371162425</v>
       </c>
       <c r="U46" t="n">
         <v>286.2285878140705</v>
@@ -26085,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>664088.6566027983</v>
+        <v>664088.6566027985</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>664088.6566027983</v>
+        <v>664088.6566027985</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>664088.6566027984</v>
+        <v>664088.6566027985</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664088.6566027981</v>
+        <v>664088.6566027985</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664088.6566027984</v>
+        <v>664088.6566027985</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664088.6566027981</v>
+        <v>664088.6566027984</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>553011.5286340009</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="D2" t="n">
         <v>553011.5286340009</v>
       </c>
       <c r="E2" t="n">
-        <v>406590.8011732853</v>
+        <v>406590.8011732855</v>
       </c>
       <c r="F2" t="n">
-        <v>406590.8011732854</v>
+        <v>406590.8011732855</v>
       </c>
       <c r="G2" t="n">
-        <v>406590.8011732853</v>
+        <v>406590.8011732855</v>
       </c>
       <c r="H2" t="n">
-        <v>406590.8011732853</v>
+        <v>406590.8011732856</v>
       </c>
       <c r="I2" t="n">
+        <v>412474.1404974383</v>
+      </c>
+      <c r="J2" t="n">
         <v>412474.1404974384</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>412474.1404974385</v>
-      </c>
-      <c r="K2" t="n">
-        <v>412474.1404974384</v>
       </c>
       <c r="L2" t="n">
         <v>412474.1404974384</v>
       </c>
       <c r="M2" t="n">
-        <v>406590.8011732852</v>
+        <v>406590.8011732856</v>
       </c>
       <c r="N2" t="n">
+        <v>406590.8011732856</v>
+      </c>
+      <c r="O2" t="n">
         <v>406590.8011732853</v>
-      </c>
-      <c r="O2" t="n">
-        <v>406590.8011732851</v>
       </c>
       <c r="P2" t="n">
         <v>406590.8011732854</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.579376124</v>
+        <v>924651.5793761241</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648139</v>
+        <v>4895.439270648196</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468589</v>
+        <v>150597.338246859</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>17063.09274441892</v>
+        <v>17063.09274441894</v>
       </c>
       <c r="F4" t="n">
-        <v>17063.09274441892</v>
+        <v>17063.09274441891</v>
       </c>
       <c r="G4" t="n">
-        <v>17063.09274441892</v>
+        <v>17063.09274441893</v>
       </c>
       <c r="H4" t="n">
-        <v>17063.09274441892</v>
+        <v>17063.09274441894</v>
       </c>
       <c r="I4" t="n">
         <v>20188.9926298272</v>
       </c>
       <c r="J4" t="n">
-        <v>20188.99262982719</v>
+        <v>20188.9926298272</v>
       </c>
       <c r="K4" t="n">
-        <v>20188.99262982719</v>
+        <v>20188.9926298272</v>
       </c>
       <c r="L4" t="n">
-        <v>20188.99262982717</v>
+        <v>20188.99262982718</v>
       </c>
       <c r="M4" t="n">
-        <v>17063.09274441891</v>
+        <v>17063.09274441894</v>
       </c>
       <c r="N4" t="n">
-        <v>17063.09274441892</v>
+        <v>17063.09274441894</v>
       </c>
       <c r="O4" t="n">
         <v>17063.09274441892</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="H5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
@@ -26502,10 +26502,10 @@
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="O5" t="n">
         <v>57906.41050425673</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99192.02396578852</v>
+        <v>99231.74616660154</v>
       </c>
       <c r="C6" t="n">
-        <v>99192.02396578841</v>
+        <v>99231.74616660154</v>
       </c>
       <c r="D6" t="n">
-        <v>99192.02396578852</v>
+        <v>99231.74616660154</v>
       </c>
       <c r="E6" t="n">
-        <v>-598497.4071361478</v>
+        <v>-593576.9940199776</v>
       </c>
       <c r="F6" t="n">
-        <v>326154.1722399762</v>
+        <v>331074.5853561465</v>
       </c>
       <c r="G6" t="n">
-        <v>326154.1722399761</v>
+        <v>331074.5853561466</v>
       </c>
       <c r="H6" t="n">
-        <v>326154.1722399761</v>
+        <v>331074.5853561466</v>
       </c>
       <c r="I6" t="n">
-        <v>323114.7838962413</v>
+        <v>327839.0857016063</v>
       </c>
       <c r="J6" t="n">
-        <v>328010.2231668895</v>
+        <v>332734.5249722545</v>
       </c>
       <c r="K6" t="n">
-        <v>328010.2231668894</v>
+        <v>332734.5249722546</v>
       </c>
       <c r="L6" t="n">
-        <v>328010.2231668894</v>
+        <v>332734.5249722546</v>
       </c>
       <c r="M6" t="n">
-        <v>175556.8339931171</v>
+        <v>180477.2471092876</v>
       </c>
       <c r="N6" t="n">
-        <v>326154.1722399761</v>
+        <v>331074.5853561465</v>
       </c>
       <c r="O6" t="n">
-        <v>326154.1722399759</v>
+        <v>331074.5853561463</v>
       </c>
       <c r="P6" t="n">
-        <v>326154.1722399762</v>
+        <v>331074.5853561464</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="G3" t="n">
         <v>919.4890146074874</v>
@@ -26770,10 +26770,10 @@
         <v>919.4890146074874</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="O3" t="n">
         <v>919.4890146074873</v>
@@ -26798,34 +26798,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="I4" t="n">
         <v>641.1322360870909</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="L4" t="n">
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="O4" t="n">
         <v>622.7228616087748</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.197460381959111e-14</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.722861608775</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831551</v>
+        <v>18.40937447831573</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304588</v>
+        <v>604.3134871304594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.722861608775</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H11" t="n">
         <v>37.85614822451829</v>
@@ -31761,40 +31761,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K11" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M11" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P11" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R11" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T11" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U11" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I12" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J12" t="n">
         <v>186.8557817326405</v>
@@ -31849,13 +31849,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N12" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P12" t="n">
         <v>377.6671011130263</v>
@@ -31870,7 +31870,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U12" t="n">
         <v>0.1301163699916256</v>
@@ -31916,7 +31916,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J13" t="n">
         <v>117.2273125672529</v>
@@ -31925,7 +31925,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L13" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M13" t="n">
         <v>259.9139193258508</v>
@@ -31937,7 +31937,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P13" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q13" t="n">
         <v>138.8428412057306</v>
@@ -31946,13 +31946,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T13" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H14" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I14" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L14" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M14" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R14" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T14" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U14" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,31 +32071,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J15" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L15" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q15" t="n">
         <v>252.4604554824181</v>
@@ -32104,13 +32104,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T15" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H16" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J16" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K16" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L16" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M16" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N16" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P16" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q16" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T16" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H35" t="n">
         <v>37.85614822451829</v>
@@ -33657,40 +33657,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J35" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K35" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L35" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M35" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P35" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R35" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T35" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U35" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H36" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I36" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J36" t="n">
         <v>186.8557817326405</v>
@@ -33745,13 +33745,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N36" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P36" t="n">
         <v>377.6671011130263</v>
@@ -33766,7 +33766,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U36" t="n">
         <v>0.1301163699916256</v>
@@ -33812,7 +33812,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I37" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J37" t="n">
         <v>117.2273125672529</v>
@@ -33821,7 +33821,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L37" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M37" t="n">
         <v>259.9139193258508</v>
@@ -33833,7 +33833,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P37" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q37" t="n">
         <v>138.8428412057306</v>
@@ -33842,13 +33842,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S37" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T37" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H38" t="n">
         <v>37.85614822451829</v>
@@ -33894,40 +33894,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J38" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K38" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L38" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M38" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P38" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R38" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T38" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U38" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H39" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I39" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J39" t="n">
         <v>186.8557817326405</v>
@@ -33982,13 +33982,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N39" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P39" t="n">
         <v>377.6671011130263</v>
@@ -34003,7 +34003,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U39" t="n">
         <v>0.1301163699916256</v>
@@ -34049,7 +34049,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I40" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J40" t="n">
         <v>117.2273125672529</v>
@@ -34058,7 +34058,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L40" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M40" t="n">
         <v>259.9139193258508</v>
@@ -34070,7 +34070,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P40" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q40" t="n">
         <v>138.8428412057306</v>
@@ -34079,13 +34079,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S40" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T40" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O11" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P11" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5043145717678</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158208</v>
+        <v>384.8272032323205</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N12" t="n">
         <v>383.0429961922271</v>
@@ -35509,10 +35509,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K13" t="n">
         <v>170.3709935295874</v>
@@ -35579,13 +35579,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N13" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O13" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q13" t="n">
         <v>52.68079795403621</v>
@@ -35649,28 +35649,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O14" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P14" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.01815506597376</v>
+        <v>92.62341400781868</v>
       </c>
       <c r="K15" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L15" t="n">
-        <v>622.7228616087748</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M15" t="n">
-        <v>534.285414436381</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N15" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P15" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K16" t="n">
         <v>170.3709935295874</v>
@@ -35813,19 +35813,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N16" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O16" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>186.1091904063826</v>
+        <v>69.98609258703304</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5043145717681</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L18" t="n">
         <v>290.8730133158208</v>
@@ -35986,7 +35986,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>176.8680561605025</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722513</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
-        <v>300.2644154702822</v>
+        <v>329.866993150982</v>
       </c>
       <c r="L21" t="n">
         <v>290.8730133158208</v>
@@ -36211,7 +36211,7 @@
         <v>358.9874790390623</v>
       </c>
       <c r="N21" t="n">
-        <v>622.7228616087749</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O21" t="n">
         <v>327.9652704179364</v>
@@ -36220,7 +36220,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R21" t="n">
         <v>22.63732142078703</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>205.5783561699797</v>
+        <v>139.8619362969972</v>
       </c>
       <c r="K23" t="n">
         <v>250.1109559575408</v>
@@ -36381,7 +36381,7 @@
         <v>176.8680561605025</v>
       </c>
       <c r="R23" t="n">
-        <v>16.61085138722501</v>
+        <v>82.32727126020745</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K24" t="n">
-        <v>402.76067795401</v>
+        <v>425.397999374797</v>
       </c>
       <c r="L24" t="n">
         <v>290.8730133158208</v>
@@ -36460,7 +36460,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R24" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>205.5783561699792</v>
+        <v>205.5783561699797</v>
       </c>
       <c r="K26" t="n">
         <v>250.1109559575408</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>443.1035538111174</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L27" t="n">
         <v>290.8730133158208</v>
@@ -36691,10 +36691,10 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P27" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963966</v>
+        <v>301.9638775367111</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969972</v>
       </c>
       <c r="K29" t="n">
         <v>250.1109559575408</v>
@@ -36840,7 +36840,7 @@
         <v>347.5592641161277</v>
       </c>
       <c r="M29" t="n">
-        <v>425.8932445116052</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N29" t="n">
         <v>430.1516543891398</v>
@@ -36913,7 +36913,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>402.7606779540095</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158208</v>
@@ -36931,10 +36931,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q30" t="n">
-        <v>322.5559691322457</v>
+        <v>301.9638775367111</v>
       </c>
       <c r="R30" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,10 +37089,10 @@
         <v>300.319445096288</v>
       </c>
       <c r="Q32" t="n">
-        <v>184.0453210905482</v>
+        <v>249.7617409635307</v>
       </c>
       <c r="R32" t="n">
-        <v>82.32727126020745</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K33" t="n">
-        <v>181.524853957753</v>
+        <v>402.7606779540095</v>
       </c>
       <c r="L33" t="n">
         <v>290.8730133158208</v>
@@ -37162,7 +37162,7 @@
         <v>383.0429961922271</v>
       </c>
       <c r="O33" t="n">
-        <v>571.8384158349799</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P33" t="n">
         <v>243.6926936986961</v>
@@ -37171,7 +37171,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O35" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P35" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722513</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5043145717678</v>
+        <v>352.504314571769</v>
       </c>
       <c r="L36" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N36" t="n">
         <v>383.0429961922271</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
@@ -37475,13 +37475,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N37" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O37" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P37" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q37" t="n">
         <v>52.68079795403621</v>
@@ -37545,28 +37545,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O38" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P38" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722513</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>445.9900909703316</v>
+        <v>352.504314571769</v>
       </c>
       <c r="L39" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N39" t="n">
         <v>383.0429961922271</v>
@@ -37642,7 +37642,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q39" t="n">
-        <v>229.070192733682</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
@@ -37712,13 +37712,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N40" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O40" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P40" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q40" t="n">
         <v>52.68079795403621</v>
@@ -37861,7 +37861,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K42" t="n">
-        <v>329.8669931509808</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L42" t="n">
         <v>290.8730133158208</v>
@@ -37879,10 +37879,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q42" t="n">
-        <v>322.5559691322457</v>
+        <v>229.070192733682</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K45" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L45" t="n">
-        <v>587.9435092702446</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M45" t="n">
         <v>358.9874790390622</v>
@@ -38116,7 +38116,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q45" t="n">
-        <v>322.5559691322457</v>
+        <v>229.070192733682</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
